--- a/data/partidos/partidos_CESA25IF.xlsx
+++ b/data/partidos/partidos_CESA25IF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:LP13"/>
+  <dimension ref="A1:LP17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11540,6 +11540,3170 @@
         <v>3</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1455975</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>06/01/2025</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>SELECCION CANARIA INFANTIL FEMENINO</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>SELECCION CANARIA INFANTIL FEMENINO</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>30</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>10</v>
+      </c>
+      <c r="M14" t="n">
+        <v>6</v>
+      </c>
+      <c r="N14" t="n">
+        <v>12</v>
+      </c>
+      <c r="O14" t="n">
+        <v>9</v>
+      </c>
+      <c r="P14" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>13</v>
+      </c>
+      <c r="R14" t="n">
+        <v>18</v>
+      </c>
+      <c r="S14" t="n">
+        <v>17</v>
+      </c>
+      <c r="T14" t="n">
+        <v>19</v>
+      </c>
+      <c r="U14" t="n">
+        <v>20</v>
+      </c>
+      <c r="V14" t="n">
+        <v>22</v>
+      </c>
+      <c r="W14" t="n">
+        <v>22</v>
+      </c>
+      <c r="X14" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>24:28</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>19:33</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>40:46</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>47:37</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>ARLET SISCART MARTINEZ</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AU14" t="inlineStr">
+        <is>
+          <t>TAMIA DE LEON MIRANDA</t>
+        </is>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="inlineStr"/>
+      <c r="AY14" t="inlineStr"/>
+      <c r="AZ14" t="inlineStr"/>
+      <c r="BA14" t="inlineStr"/>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>OUMOU DIAO DIALLO</t>
+        </is>
+      </c>
+      <c r="BC14" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD14" t="inlineStr"/>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>22:26</t>
+        </is>
+      </c>
+      <c r="BF14" t="inlineStr"/>
+      <c r="BG14" t="inlineStr"/>
+      <c r="BH14" t="inlineStr"/>
+      <c r="BI14" t="inlineStr">
+        <is>
+          <t>HADIYETOU BEWBE FKEINICH</t>
+        </is>
+      </c>
+      <c r="BJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK14" t="inlineStr"/>
+      <c r="BL14" t="inlineStr"/>
+      <c r="BM14" t="inlineStr"/>
+      <c r="BN14" t="inlineStr"/>
+      <c r="BO14" t="inlineStr"/>
+      <c r="BP14" t="inlineStr">
+        <is>
+          <t>ENIA CABACES VILLARREAL</t>
+        </is>
+      </c>
+      <c r="BQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR14" t="inlineStr"/>
+      <c r="BS14" t="inlineStr"/>
+      <c r="BT14" t="inlineStr"/>
+      <c r="BU14" t="inlineStr"/>
+      <c r="BV14" t="inlineStr"/>
+      <c r="BW14" t="inlineStr">
+        <is>
+          <t>CARLOTA NODA SANCHEZ</t>
+        </is>
+      </c>
+      <c r="BX14" t="n">
+        <v>5</v>
+      </c>
+      <c r="BY14" t="inlineStr"/>
+      <c r="BZ14" t="inlineStr"/>
+      <c r="CA14" t="inlineStr"/>
+      <c r="CB14" t="inlineStr"/>
+      <c r="CC14" t="inlineStr"/>
+      <c r="CD14" t="inlineStr">
+        <is>
+          <t>ALBA PALACIOS GARCIA</t>
+        </is>
+      </c>
+      <c r="CE14" t="n">
+        <v>7</v>
+      </c>
+      <c r="CF14" t="inlineStr">
+        <is>
+          <t>02:36</t>
+        </is>
+      </c>
+      <c r="CG14" t="inlineStr">
+        <is>
+          <t>04:38</t>
+        </is>
+      </c>
+      <c r="CH14" t="inlineStr">
+        <is>
+          <t>44:16</t>
+        </is>
+      </c>
+      <c r="CI14" t="inlineStr"/>
+      <c r="CJ14" t="inlineStr"/>
+      <c r="CK14" t="inlineStr">
+        <is>
+          <t>CINTIA RODRIGUEZ RIVERO</t>
+        </is>
+      </c>
+      <c r="CL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM14" t="inlineStr"/>
+      <c r="CN14" t="inlineStr"/>
+      <c r="CO14" t="inlineStr"/>
+      <c r="CP14" t="inlineStr"/>
+      <c r="CQ14" t="inlineStr"/>
+      <c r="CR14" t="inlineStr">
+        <is>
+          <t>JULIA SABADELL MARTINEZ</t>
+        </is>
+      </c>
+      <c r="CS14" t="n">
+        <v>6</v>
+      </c>
+      <c r="CT14" t="inlineStr"/>
+      <c r="CU14" t="inlineStr">
+        <is>
+          <t>30:57</t>
+        </is>
+      </c>
+      <c r="CV14" t="inlineStr"/>
+      <c r="CW14" t="inlineStr"/>
+      <c r="CX14" t="inlineStr"/>
+      <c r="CY14" t="inlineStr">
+        <is>
+          <t>ISABELLA FERNANDEZ SANTAELLA</t>
+        </is>
+      </c>
+      <c r="CZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA14" t="inlineStr"/>
+      <c r="DB14" t="inlineStr"/>
+      <c r="DC14" t="inlineStr"/>
+      <c r="DD14" t="inlineStr"/>
+      <c r="DE14" t="inlineStr"/>
+      <c r="DF14" t="inlineStr">
+        <is>
+          <t>MARIONA MONTESINOS GARCIA</t>
+        </is>
+      </c>
+      <c r="DG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH14" t="inlineStr"/>
+      <c r="DI14" t="inlineStr">
+        <is>
+          <t>26:56</t>
+        </is>
+      </c>
+      <c r="DJ14" t="inlineStr"/>
+      <c r="DK14" t="inlineStr"/>
+      <c r="DL14" t="inlineStr"/>
+      <c r="DM14" t="inlineStr">
+        <is>
+          <t>AINARA MARTIN RAMOS</t>
+        </is>
+      </c>
+      <c r="DN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO14" t="inlineStr"/>
+      <c r="DP14" t="inlineStr"/>
+      <c r="DQ14" t="inlineStr"/>
+      <c r="DR14" t="inlineStr"/>
+      <c r="DS14" t="inlineStr"/>
+      <c r="DT14" t="inlineStr">
+        <is>
+          <t>CARLOTA GERMAIN GARRIGA</t>
+        </is>
+      </c>
+      <c r="DU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV14" t="inlineStr"/>
+      <c r="DW14" t="inlineStr"/>
+      <c r="DX14" t="inlineStr"/>
+      <c r="DY14" t="inlineStr"/>
+      <c r="DZ14" t="inlineStr"/>
+      <c r="EA14" t="inlineStr">
+        <is>
+          <t>VALERIA HERNANDEZ ARENCIBIA</t>
+        </is>
+      </c>
+      <c r="EB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC14" t="inlineStr"/>
+      <c r="ED14" t="inlineStr">
+        <is>
+          <t>43:38</t>
+        </is>
+      </c>
+      <c r="EE14" t="inlineStr"/>
+      <c r="EF14" t="inlineStr"/>
+      <c r="EG14" t="inlineStr"/>
+      <c r="EH14" t="inlineStr">
+        <is>
+          <t>MARTINA MALLOLA COLOMER</t>
+        </is>
+      </c>
+      <c r="EI14" t="n">
+        <v>12</v>
+      </c>
+      <c r="EJ14" t="inlineStr"/>
+      <c r="EK14" t="inlineStr"/>
+      <c r="EL14" t="inlineStr"/>
+      <c r="EM14" t="inlineStr"/>
+      <c r="EN14" t="inlineStr"/>
+      <c r="EO14" t="inlineStr">
+        <is>
+          <t>NAGORE DEL CARMEN CABALLERO SOSA</t>
+        </is>
+      </c>
+      <c r="EP14" t="n">
+        <v>3</v>
+      </c>
+      <c r="EQ14" t="inlineStr"/>
+      <c r="ER14" t="inlineStr"/>
+      <c r="ES14" t="inlineStr"/>
+      <c r="ET14" t="inlineStr"/>
+      <c r="EU14" t="inlineStr"/>
+      <c r="EV14" t="inlineStr">
+        <is>
+          <t>LAIA VALLS RIERA</t>
+        </is>
+      </c>
+      <c r="EW14" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX14" t="inlineStr"/>
+      <c r="EY14" t="inlineStr">
+        <is>
+          <t>37:55</t>
+        </is>
+      </c>
+      <c r="EZ14" t="inlineStr"/>
+      <c r="FA14" t="inlineStr"/>
+      <c r="FB14" t="inlineStr"/>
+      <c r="FC14" t="inlineStr">
+        <is>
+          <t>IRIA CEDRES RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="FD14" t="n">
+        <v>6</v>
+      </c>
+      <c r="FE14" t="inlineStr"/>
+      <c r="FF14" t="inlineStr">
+        <is>
+          <t>18:13</t>
+        </is>
+      </c>
+      <c r="FG14" t="inlineStr"/>
+      <c r="FH14" t="inlineStr"/>
+      <c r="FI14" t="inlineStr"/>
+      <c r="FJ14" t="inlineStr">
+        <is>
+          <t>BERTA MARTINEZ PEÑA</t>
+        </is>
+      </c>
+      <c r="FK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL14" t="inlineStr"/>
+      <c r="FM14" t="inlineStr"/>
+      <c r="FN14" t="inlineStr"/>
+      <c r="FO14" t="inlineStr"/>
+      <c r="FP14" t="inlineStr"/>
+      <c r="FQ14" t="inlineStr">
+        <is>
+          <t>NIRA DUQUE ROBAYNA</t>
+        </is>
+      </c>
+      <c r="FR14" t="n">
+        <v>3</v>
+      </c>
+      <c r="FS14" t="inlineStr"/>
+      <c r="FT14" t="inlineStr"/>
+      <c r="FU14" t="inlineStr"/>
+      <c r="FV14" t="inlineStr"/>
+      <c r="FW14" t="inlineStr"/>
+      <c r="FX14" t="inlineStr">
+        <is>
+          <t>LAURA MARIA JORIN DIEZ</t>
+        </is>
+      </c>
+      <c r="FY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ14" t="inlineStr"/>
+      <c r="GA14" t="inlineStr"/>
+      <c r="GB14" t="inlineStr"/>
+      <c r="GC14" t="inlineStr"/>
+      <c r="GD14" t="inlineStr"/>
+      <c r="GE14" t="inlineStr">
+        <is>
+          <t>DANIELA LEMES MESEGUER</t>
+        </is>
+      </c>
+      <c r="GF14" t="n">
+        <v>6</v>
+      </c>
+      <c r="GG14" t="inlineStr"/>
+      <c r="GH14" t="inlineStr"/>
+      <c r="GI14" t="inlineStr"/>
+      <c r="GJ14" t="inlineStr"/>
+      <c r="GK14" t="inlineStr"/>
+      <c r="GL14" t="inlineStr">
+        <is>
+          <t>NORA IGLESIAS DE LA FUENTE</t>
+        </is>
+      </c>
+      <c r="GM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN14" t="inlineStr"/>
+      <c r="GO14" t="inlineStr"/>
+      <c r="GP14" t="inlineStr"/>
+      <c r="GQ14" t="inlineStr"/>
+      <c r="GR14" t="inlineStr"/>
+      <c r="GS14" t="inlineStr">
+        <is>
+          <t>DANIELA RODRIGUEZ JIMENEZ</t>
+        </is>
+      </c>
+      <c r="GT14" t="n">
+        <v>6</v>
+      </c>
+      <c r="GU14" t="inlineStr"/>
+      <c r="GV14" t="inlineStr">
+        <is>
+          <t>08:50</t>
+        </is>
+      </c>
+      <c r="GW14" t="inlineStr">
+        <is>
+          <t>43:19</t>
+        </is>
+      </c>
+      <c r="GX14" t="inlineStr"/>
+      <c r="GY14" t="inlineStr"/>
+      <c r="GZ14" t="inlineStr">
+        <is>
+          <t>MARTINA CASTELLANO RUBIO</t>
+        </is>
+      </c>
+      <c r="HA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB14" t="inlineStr"/>
+      <c r="HC14" t="inlineStr"/>
+      <c r="HD14" t="inlineStr"/>
+      <c r="HE14" t="inlineStr"/>
+      <c r="HF14" t="inlineStr"/>
+      <c r="HG14" t="inlineStr">
+        <is>
+          <t>ARIETTA MEDINA ORTEGA</t>
+        </is>
+      </c>
+      <c r="HH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI14" t="inlineStr"/>
+      <c r="HJ14" t="inlineStr"/>
+      <c r="HK14" t="inlineStr"/>
+      <c r="HL14" t="inlineStr"/>
+      <c r="HM14" t="inlineStr"/>
+      <c r="HN14" t="inlineStr">
+        <is>
+          <t>LARA MARTINEZ DIAZ</t>
+        </is>
+      </c>
+      <c r="HO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP14" t="inlineStr"/>
+      <c r="HQ14" t="inlineStr"/>
+      <c r="HR14" t="inlineStr"/>
+      <c r="HS14" t="inlineStr"/>
+      <c r="HT14" t="inlineStr"/>
+      <c r="HU14" t="inlineStr">
+        <is>
+          <t>VALENTINA MARIA HERNANDEZ PEREZ</t>
+        </is>
+      </c>
+      <c r="HV14" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW14" t="inlineStr"/>
+      <c r="HX14" t="inlineStr">
+        <is>
+          <t>28:16</t>
+        </is>
+      </c>
+      <c r="HY14" t="inlineStr"/>
+      <c r="HZ14" t="inlineStr"/>
+      <c r="IA14" t="inlineStr"/>
+      <c r="IB14" t="inlineStr">
+        <is>
+          <t>KIRA BUJAN GOMEZ</t>
+        </is>
+      </c>
+      <c r="IC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID14" t="inlineStr"/>
+      <c r="IE14" t="inlineStr"/>
+      <c r="IF14" t="inlineStr"/>
+      <c r="IG14" t="inlineStr"/>
+      <c r="IH14" t="inlineStr"/>
+      <c r="II14" t="inlineStr"/>
+      <c r="IJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK14" t="inlineStr"/>
+      <c r="IL14" t="inlineStr"/>
+      <c r="IM14" t="inlineStr"/>
+      <c r="IN14" t="inlineStr"/>
+      <c r="IO14" t="inlineStr"/>
+      <c r="IP14" t="inlineStr">
+        <is>
+          <t>MARIA PASCUAL MOLL</t>
+        </is>
+      </c>
+      <c r="IQ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="IR14" t="inlineStr"/>
+      <c r="IS14" t="inlineStr"/>
+      <c r="IT14" t="inlineStr"/>
+      <c r="IU14" t="inlineStr"/>
+      <c r="IV14" t="inlineStr"/>
+      <c r="IW14" t="inlineStr"/>
+      <c r="IX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY14" t="inlineStr"/>
+      <c r="IZ14" t="inlineStr"/>
+      <c r="JA14" t="inlineStr"/>
+      <c r="JB14" t="inlineStr"/>
+      <c r="JC14" t="inlineStr"/>
+      <c r="JD14" t="inlineStr">
+        <is>
+          <t>ENTRENADOR</t>
+        </is>
+      </c>
+      <c r="JE14" t="inlineStr">
+        <is>
+          <t>CAROLINA CARMONA VILAR</t>
+        </is>
+      </c>
+      <c r="JF14" t="inlineStr"/>
+      <c r="JG14" t="inlineStr"/>
+      <c r="JH14" t="inlineStr">
+        <is>
+          <t>AYTE ENTRENADOR</t>
+        </is>
+      </c>
+      <c r="JI14" t="inlineStr">
+        <is>
+          <t>SARA GARCIA CERVERA</t>
+        </is>
+      </c>
+      <c r="JJ14" t="inlineStr"/>
+      <c r="JK14" t="inlineStr"/>
+      <c r="JL14" t="inlineStr">
+        <is>
+          <t>OFICIAL</t>
+        </is>
+      </c>
+      <c r="JM14" t="inlineStr">
+        <is>
+          <t>NURIA ROSELL POU</t>
+        </is>
+      </c>
+      <c r="JN14" t="inlineStr"/>
+      <c r="JO14" t="inlineStr"/>
+      <c r="JP14" t="inlineStr">
+        <is>
+          <t>OFICIAL</t>
+        </is>
+      </c>
+      <c r="JQ14" t="inlineStr">
+        <is>
+          <t>XAVIER AROS SANTIAGO</t>
+        </is>
+      </c>
+      <c r="JR14" t="inlineStr"/>
+      <c r="JS14" t="inlineStr"/>
+      <c r="JT14" t="inlineStr"/>
+      <c r="JU14" t="inlineStr"/>
+      <c r="JV14" t="inlineStr"/>
+      <c r="JW14" t="inlineStr"/>
+      <c r="JX14" t="n">
+        <v>65</v>
+      </c>
+      <c r="JY14" t="n">
+        <v>5</v>
+      </c>
+      <c r="JZ14" t="n">
+        <v>5</v>
+      </c>
+      <c r="KA14" t="n">
+        <v>6</v>
+      </c>
+      <c r="KB14" t="n">
+        <v>5</v>
+      </c>
+      <c r="KC14" t="n">
+        <v>4</v>
+      </c>
+      <c r="KD14" t="n">
+        <v>5</v>
+      </c>
+      <c r="KE14" t="n">
+        <v>6</v>
+      </c>
+      <c r="KF14" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG14" t="n">
+        <v>2</v>
+      </c>
+      <c r="KH14" t="n">
+        <v>3</v>
+      </c>
+      <c r="KI14" t="n">
+        <v>3</v>
+      </c>
+      <c r="KJ14" t="n">
+        <v>4</v>
+      </c>
+      <c r="KK14" t="n">
+        <v>3</v>
+      </c>
+      <c r="KL14" t="n">
+        <v>4</v>
+      </c>
+      <c r="KM14" t="n">
+        <v>1</v>
+      </c>
+      <c r="KN14" t="n">
+        <v>3</v>
+      </c>
+      <c r="KO14" t="n">
+        <v>3</v>
+      </c>
+      <c r="KP14" t="n">
+        <v>2</v>
+      </c>
+      <c r="KQ14" t="n">
+        <v>4</v>
+      </c>
+      <c r="KR14" t="n">
+        <v>3</v>
+      </c>
+      <c r="KS14" t="n">
+        <v>4</v>
+      </c>
+      <c r="KT14" t="n">
+        <v>3</v>
+      </c>
+      <c r="KU14" t="n">
+        <v>5</v>
+      </c>
+      <c r="KV14" t="n">
+        <v>2</v>
+      </c>
+      <c r="KW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA14" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LB14" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LC14" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LD14" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LE14" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LF14" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LG14" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LH14" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LI14" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LJ14" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LK14" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LL14" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LM14" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LN14" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LO14" t="n">
+        <v>6</v>
+      </c>
+      <c r="LP14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1455976</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>06/01/2025</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>SEL. GALICIA INFANTIL FEMENINO</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>SEL. ASTURIAS INFANTIL FEMENINO</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6</v>
+      </c>
+      <c r="O15" t="n">
+        <v>7</v>
+      </c>
+      <c r="P15" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>11</v>
+      </c>
+      <c r="R15" t="n">
+        <v>8</v>
+      </c>
+      <c r="S15" t="n">
+        <v>13</v>
+      </c>
+      <c r="T15" t="n">
+        <v>11</v>
+      </c>
+      <c r="U15" t="n">
+        <v>15</v>
+      </c>
+      <c r="V15" t="n">
+        <v>13</v>
+      </c>
+      <c r="W15" t="n">
+        <v>17</v>
+      </c>
+      <c r="X15" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>15:48</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>24:18</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>39:06</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>KARLA FERNANDEZ LOPEZ</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr">
+        <is>
+          <t>CARMEN HORTAL PALACIO</t>
+        </is>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="inlineStr"/>
+      <c r="AX15" t="inlineStr"/>
+      <c r="AY15" t="inlineStr"/>
+      <c r="AZ15" t="inlineStr"/>
+      <c r="BA15" t="inlineStr"/>
+      <c r="BB15" t="inlineStr">
+        <is>
+          <t>SARA SALOMON MOURIN</t>
+        </is>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="inlineStr"/>
+      <c r="BG15" t="inlineStr"/>
+      <c r="BH15" t="inlineStr"/>
+      <c r="BI15" t="inlineStr">
+        <is>
+          <t>PASTORA LAGO MARTINEZ</t>
+        </is>
+      </c>
+      <c r="BJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK15" t="inlineStr"/>
+      <c r="BL15" t="inlineStr"/>
+      <c r="BM15" t="inlineStr"/>
+      <c r="BN15" t="inlineStr"/>
+      <c r="BO15" t="inlineStr"/>
+      <c r="BP15" t="inlineStr">
+        <is>
+          <t>AFRICA GOMEZ ROLAN</t>
+        </is>
+      </c>
+      <c r="BQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR15" t="inlineStr"/>
+      <c r="BS15" t="inlineStr"/>
+      <c r="BT15" t="inlineStr"/>
+      <c r="BU15" t="inlineStr"/>
+      <c r="BV15" t="inlineStr"/>
+      <c r="BW15" t="inlineStr">
+        <is>
+          <t>TERESA ALVAREZ MARTINEZ</t>
+        </is>
+      </c>
+      <c r="BX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY15" t="inlineStr"/>
+      <c r="BZ15" t="inlineStr"/>
+      <c r="CA15" t="inlineStr"/>
+      <c r="CB15" t="inlineStr"/>
+      <c r="CC15" t="inlineStr"/>
+      <c r="CD15" t="inlineStr">
+        <is>
+          <t>CANDELA GUTIERREZ CARRAL</t>
+        </is>
+      </c>
+      <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="inlineStr"/>
+      <c r="CG15" t="inlineStr"/>
+      <c r="CH15" t="inlineStr"/>
+      <c r="CI15" t="inlineStr"/>
+      <c r="CJ15" t="inlineStr"/>
+      <c r="CK15" t="inlineStr">
+        <is>
+          <t>REYES FERNANDEZ ROCES</t>
+        </is>
+      </c>
+      <c r="CL15" t="n">
+        <v>3</v>
+      </c>
+      <c r="CM15" t="inlineStr"/>
+      <c r="CN15" t="inlineStr"/>
+      <c r="CO15" t="inlineStr"/>
+      <c r="CP15" t="inlineStr"/>
+      <c r="CQ15" t="inlineStr"/>
+      <c r="CR15" t="inlineStr">
+        <is>
+          <t>PAULA LAGO ALONSO</t>
+        </is>
+      </c>
+      <c r="CS15" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT15" t="inlineStr"/>
+      <c r="CU15" t="inlineStr"/>
+      <c r="CV15" t="inlineStr"/>
+      <c r="CW15" t="inlineStr"/>
+      <c r="CX15" t="inlineStr"/>
+      <c r="CY15" t="inlineStr">
+        <is>
+          <t>DANIELA MARTINEZ GONZALEZ</t>
+        </is>
+      </c>
+      <c r="CZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA15" t="inlineStr"/>
+      <c r="DB15" t="inlineStr"/>
+      <c r="DC15" t="inlineStr"/>
+      <c r="DD15" t="inlineStr"/>
+      <c r="DE15" t="inlineStr"/>
+      <c r="DF15" t="inlineStr">
+        <is>
+          <t>DANIELA FERNANDEZ DOMINGUEZ</t>
+        </is>
+      </c>
+      <c r="DG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH15" t="inlineStr"/>
+      <c r="DI15" t="inlineStr"/>
+      <c r="DJ15" t="inlineStr"/>
+      <c r="DK15" t="inlineStr"/>
+      <c r="DL15" t="inlineStr"/>
+      <c r="DM15" t="inlineStr">
+        <is>
+          <t>NAIA CENTENO PEREZ</t>
+        </is>
+      </c>
+      <c r="DN15" t="n">
+        <v>3</v>
+      </c>
+      <c r="DO15" t="inlineStr"/>
+      <c r="DP15" t="inlineStr">
+        <is>
+          <t>48:44</t>
+        </is>
+      </c>
+      <c r="DQ15" t="inlineStr"/>
+      <c r="DR15" t="inlineStr"/>
+      <c r="DS15" t="inlineStr"/>
+      <c r="DT15" t="inlineStr">
+        <is>
+          <t>DANIELA FIGUEROA LOPEZ</t>
+        </is>
+      </c>
+      <c r="DU15" t="n">
+        <v>3</v>
+      </c>
+      <c r="DV15" t="inlineStr"/>
+      <c r="DW15" t="inlineStr"/>
+      <c r="DX15" t="inlineStr"/>
+      <c r="DY15" t="inlineStr"/>
+      <c r="DZ15" t="inlineStr"/>
+      <c r="EA15" t="inlineStr">
+        <is>
+          <t>TELVA FERNANDEZ FERNANDEZ</t>
+        </is>
+      </c>
+      <c r="EB15" t="n">
+        <v>14</v>
+      </c>
+      <c r="EC15" t="inlineStr"/>
+      <c r="ED15" t="inlineStr"/>
+      <c r="EE15" t="inlineStr"/>
+      <c r="EF15" t="inlineStr"/>
+      <c r="EG15" t="inlineStr"/>
+      <c r="EH15" t="inlineStr">
+        <is>
+          <t>JULIA MACEIRA IGLESIAS</t>
+        </is>
+      </c>
+      <c r="EI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ15" t="inlineStr"/>
+      <c r="EK15" t="inlineStr"/>
+      <c r="EL15" t="inlineStr"/>
+      <c r="EM15" t="inlineStr"/>
+      <c r="EN15" t="inlineStr"/>
+      <c r="EO15" t="inlineStr">
+        <is>
+          <t>SARA VALDES CADIERNO</t>
+        </is>
+      </c>
+      <c r="EP15" t="n">
+        <v>4</v>
+      </c>
+      <c r="EQ15" t="inlineStr"/>
+      <c r="ER15" t="inlineStr">
+        <is>
+          <t>26:59</t>
+        </is>
+      </c>
+      <c r="ES15" t="inlineStr"/>
+      <c r="ET15" t="inlineStr"/>
+      <c r="EU15" t="inlineStr"/>
+      <c r="EV15" t="inlineStr">
+        <is>
+          <t>UXIA SOTELO LOPEZ</t>
+        </is>
+      </c>
+      <c r="EW15" t="n">
+        <v>6</v>
+      </c>
+      <c r="EX15" t="inlineStr"/>
+      <c r="EY15" t="inlineStr"/>
+      <c r="EZ15" t="inlineStr"/>
+      <c r="FA15" t="inlineStr"/>
+      <c r="FB15" t="inlineStr"/>
+      <c r="FC15" t="inlineStr">
+        <is>
+          <t>OLIVIA COSTA FERNANDEZ</t>
+        </is>
+      </c>
+      <c r="FD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE15" t="inlineStr"/>
+      <c r="FF15" t="inlineStr"/>
+      <c r="FG15" t="inlineStr"/>
+      <c r="FH15" t="inlineStr"/>
+      <c r="FI15" t="inlineStr"/>
+      <c r="FJ15" t="inlineStr">
+        <is>
+          <t>ANGELA MARTINEZ RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="FK15" t="n">
+        <v>3</v>
+      </c>
+      <c r="FL15" t="inlineStr"/>
+      <c r="FM15" t="inlineStr">
+        <is>
+          <t>25:42</t>
+        </is>
+      </c>
+      <c r="FN15" t="inlineStr"/>
+      <c r="FO15" t="inlineStr"/>
+      <c r="FP15" t="inlineStr"/>
+      <c r="FQ15" t="inlineStr">
+        <is>
+          <t>LOLA PALACIO ALVAREZ</t>
+        </is>
+      </c>
+      <c r="FR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS15" t="inlineStr"/>
+      <c r="FT15" t="inlineStr"/>
+      <c r="FU15" t="inlineStr"/>
+      <c r="FV15" t="inlineStr"/>
+      <c r="FW15" t="inlineStr"/>
+      <c r="FX15" t="inlineStr">
+        <is>
+          <t>DANIELA ALVAREZ LOMBA</t>
+        </is>
+      </c>
+      <c r="FY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ15" t="inlineStr"/>
+      <c r="GA15" t="inlineStr"/>
+      <c r="GB15" t="inlineStr"/>
+      <c r="GC15" t="inlineStr"/>
+      <c r="GD15" t="inlineStr"/>
+      <c r="GE15" t="inlineStr">
+        <is>
+          <t>VERA ESTRADA ZAMARREÑO</t>
+        </is>
+      </c>
+      <c r="GF15" t="n">
+        <v>2</v>
+      </c>
+      <c r="GG15" t="inlineStr"/>
+      <c r="GH15" t="inlineStr"/>
+      <c r="GI15" t="inlineStr"/>
+      <c r="GJ15" t="inlineStr"/>
+      <c r="GK15" t="inlineStr"/>
+      <c r="GL15" t="inlineStr">
+        <is>
+          <t>AINHOA BLANCO SANCHEZ</t>
+        </is>
+      </c>
+      <c r="GM15" t="n">
+        <v>8</v>
+      </c>
+      <c r="GN15" t="inlineStr"/>
+      <c r="GO15" t="inlineStr"/>
+      <c r="GP15" t="inlineStr"/>
+      <c r="GQ15" t="inlineStr"/>
+      <c r="GR15" t="inlineStr"/>
+      <c r="GS15" t="inlineStr">
+        <is>
+          <t>CARLA GONZALEZ AMADO</t>
+        </is>
+      </c>
+      <c r="GT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU15" t="inlineStr"/>
+      <c r="GV15" t="inlineStr"/>
+      <c r="GW15" t="inlineStr"/>
+      <c r="GX15" t="inlineStr"/>
+      <c r="GY15" t="inlineStr"/>
+      <c r="GZ15" t="inlineStr">
+        <is>
+          <t>ANGELA SANCHEZ SIMION</t>
+        </is>
+      </c>
+      <c r="HA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB15" t="inlineStr"/>
+      <c r="HC15" t="inlineStr"/>
+      <c r="HD15" t="inlineStr"/>
+      <c r="HE15" t="inlineStr"/>
+      <c r="HF15" t="inlineStr"/>
+      <c r="HG15" t="inlineStr">
+        <is>
+          <t>MARIA GARCIA CALABOZO</t>
+        </is>
+      </c>
+      <c r="HH15" t="n">
+        <v>2</v>
+      </c>
+      <c r="HI15" t="inlineStr"/>
+      <c r="HJ15" t="inlineStr"/>
+      <c r="HK15" t="inlineStr"/>
+      <c r="HL15" t="inlineStr"/>
+      <c r="HM15" t="inlineStr"/>
+      <c r="HN15" t="inlineStr">
+        <is>
+          <t>NOA OTON MARTA</t>
+        </is>
+      </c>
+      <c r="HO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP15" t="inlineStr"/>
+      <c r="HQ15" t="inlineStr"/>
+      <c r="HR15" t="inlineStr"/>
+      <c r="HS15" t="inlineStr"/>
+      <c r="HT15" t="inlineStr"/>
+      <c r="HU15" t="inlineStr">
+        <is>
+          <t>ALEJANDRA MARTINEZ GONZALEZ</t>
+        </is>
+      </c>
+      <c r="HV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW15" t="inlineStr"/>
+      <c r="HX15" t="inlineStr"/>
+      <c r="HY15" t="inlineStr"/>
+      <c r="HZ15" t="inlineStr"/>
+      <c r="IA15" t="inlineStr"/>
+      <c r="IB15" t="inlineStr">
+        <is>
+          <t>RACHEL ORTIZ DELGADO</t>
+        </is>
+      </c>
+      <c r="IC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID15" t="inlineStr"/>
+      <c r="IE15" t="inlineStr"/>
+      <c r="IF15" t="inlineStr"/>
+      <c r="IG15" t="inlineStr"/>
+      <c r="IH15" t="inlineStr"/>
+      <c r="II15" t="inlineStr">
+        <is>
+          <t>SOFIA GARCIA CALABOZO</t>
+        </is>
+      </c>
+      <c r="IJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK15" t="inlineStr"/>
+      <c r="IL15" t="inlineStr"/>
+      <c r="IM15" t="inlineStr"/>
+      <c r="IN15" t="inlineStr"/>
+      <c r="IO15" t="inlineStr"/>
+      <c r="IP15" t="inlineStr">
+        <is>
+          <t>DANIELA MIGUEZ OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="IQ15" t="n">
+        <v>1</v>
+      </c>
+      <c r="IR15" t="inlineStr"/>
+      <c r="IS15" t="inlineStr">
+        <is>
+          <t>13:17</t>
+        </is>
+      </c>
+      <c r="IT15" t="inlineStr">
+        <is>
+          <t>24:39</t>
+        </is>
+      </c>
+      <c r="IU15" t="inlineStr"/>
+      <c r="IV15" t="inlineStr"/>
+      <c r="IW15" t="inlineStr">
+        <is>
+          <t>AROA GONZALEZ FREIJEDO</t>
+        </is>
+      </c>
+      <c r="IX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY15" t="inlineStr"/>
+      <c r="IZ15" t="inlineStr"/>
+      <c r="JA15" t="inlineStr"/>
+      <c r="JB15" t="inlineStr"/>
+      <c r="JC15" t="inlineStr"/>
+      <c r="JD15" t="inlineStr">
+        <is>
+          <t>ENTRENADOR</t>
+        </is>
+      </c>
+      <c r="JE15" t="inlineStr">
+        <is>
+          <t>MARIA ELENA ESTEVEZ PEREZ</t>
+        </is>
+      </c>
+      <c r="JF15" t="inlineStr"/>
+      <c r="JG15" t="inlineStr"/>
+      <c r="JH15" t="inlineStr">
+        <is>
+          <t>AYTE ENTRENADOR</t>
+        </is>
+      </c>
+      <c r="JI15" t="inlineStr">
+        <is>
+          <t>DANIJELA SAVIC</t>
+        </is>
+      </c>
+      <c r="JJ15" t="inlineStr"/>
+      <c r="JK15" t="inlineStr"/>
+      <c r="JL15" t="inlineStr">
+        <is>
+          <t>OFICIAL</t>
+        </is>
+      </c>
+      <c r="JM15" t="inlineStr">
+        <is>
+          <t>ALBERTO RODRIGUEZ RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="JN15" t="inlineStr"/>
+      <c r="JO15" t="inlineStr"/>
+      <c r="JP15" t="inlineStr">
+        <is>
+          <t>OFICIAL</t>
+        </is>
+      </c>
+      <c r="JQ15" t="inlineStr">
+        <is>
+          <t>PABLO MONTIEL GARCIA</t>
+        </is>
+      </c>
+      <c r="JR15" t="inlineStr"/>
+      <c r="JS15" t="inlineStr"/>
+      <c r="JT15" t="inlineStr"/>
+      <c r="JU15" t="inlineStr"/>
+      <c r="JV15" t="inlineStr"/>
+      <c r="JW15" t="inlineStr"/>
+      <c r="JX15" t="n">
+        <v>10</v>
+      </c>
+      <c r="JY15" t="n">
+        <v>10</v>
+      </c>
+      <c r="JZ15" t="n">
+        <v>10</v>
+      </c>
+      <c r="KA15" t="n">
+        <v>1</v>
+      </c>
+      <c r="KB15" t="n">
+        <v>2</v>
+      </c>
+      <c r="KC15" t="n">
+        <v>2</v>
+      </c>
+      <c r="KD15" t="n">
+        <v>2</v>
+      </c>
+      <c r="KE15" t="n">
+        <v>3</v>
+      </c>
+      <c r="KF15" t="n">
+        <v>2</v>
+      </c>
+      <c r="KG15" t="n">
+        <v>1</v>
+      </c>
+      <c r="KH15" t="n">
+        <v>3</v>
+      </c>
+      <c r="KI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ15" t="n">
+        <v>4</v>
+      </c>
+      <c r="KK15" t="n">
+        <v>2</v>
+      </c>
+      <c r="KL15" t="n">
+        <v>2</v>
+      </c>
+      <c r="KM15" t="n">
+        <v>3</v>
+      </c>
+      <c r="KN15" t="n">
+        <v>2</v>
+      </c>
+      <c r="KO15" t="n">
+        <v>2</v>
+      </c>
+      <c r="KP15" t="n">
+        <v>2</v>
+      </c>
+      <c r="KQ15" t="n">
+        <v>3</v>
+      </c>
+      <c r="KR15" t="n">
+        <v>3</v>
+      </c>
+      <c r="KS15" t="n">
+        <v>4</v>
+      </c>
+      <c r="KT15" t="n">
+        <v>5</v>
+      </c>
+      <c r="KU15" t="n">
+        <v>2</v>
+      </c>
+      <c r="KV15" t="n">
+        <v>3</v>
+      </c>
+      <c r="KW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA15" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LB15" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LC15" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LD15" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LE15" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LF15" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LG15" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LH15" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LI15" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LJ15" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LK15" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LL15" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LM15" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LN15" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LO15" t="n">
+        <v>1</v>
+      </c>
+      <c r="LP15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1455977</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>06/01/2025</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ANDALUCIA INFANTIL FEMENINO</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>SELECCION CASTILLA LA MANCHA INFANTIL FEM.</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>37</v>
+      </c>
+      <c r="I16" t="n">
+        <v>35</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>8</v>
+      </c>
+      <c r="M16" t="n">
+        <v>9</v>
+      </c>
+      <c r="N16" t="n">
+        <v>12</v>
+      </c>
+      <c r="O16" t="n">
+        <v>13</v>
+      </c>
+      <c r="P16" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>18</v>
+      </c>
+      <c r="R16" t="n">
+        <v>18</v>
+      </c>
+      <c r="S16" t="n">
+        <v>21</v>
+      </c>
+      <c r="T16" t="n">
+        <v>21</v>
+      </c>
+      <c r="U16" t="n">
+        <v>24</v>
+      </c>
+      <c r="V16" t="n">
+        <v>25</v>
+      </c>
+      <c r="W16" t="n">
+        <v>26</v>
+      </c>
+      <c r="X16" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>35</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>37</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>35</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>ESPERANZA GARCIA MARCHENA</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="inlineStr">
+        <is>
+          <t>LEYRE HERNANDEZ BARBUDO</t>
+        </is>
+      </c>
+      <c r="AV16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW16" t="inlineStr"/>
+      <c r="AX16" t="inlineStr"/>
+      <c r="AY16" t="inlineStr"/>
+      <c r="AZ16" t="inlineStr"/>
+      <c r="BA16" t="inlineStr"/>
+      <c r="BB16" t="inlineStr">
+        <is>
+          <t>AYSEL ESTRADA CID</t>
+        </is>
+      </c>
+      <c r="BC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD16" t="inlineStr"/>
+      <c r="BE16" t="inlineStr"/>
+      <c r="BF16" t="inlineStr"/>
+      <c r="BG16" t="inlineStr"/>
+      <c r="BH16" t="inlineStr"/>
+      <c r="BI16" t="inlineStr">
+        <is>
+          <t>DANIELA ARIAS MORENO</t>
+        </is>
+      </c>
+      <c r="BJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK16" t="inlineStr"/>
+      <c r="BL16" t="inlineStr"/>
+      <c r="BM16" t="inlineStr"/>
+      <c r="BN16" t="inlineStr"/>
+      <c r="BO16" t="inlineStr"/>
+      <c r="BP16" t="inlineStr">
+        <is>
+          <t>ABIGAIL LEMA QUINA</t>
+        </is>
+      </c>
+      <c r="BQ16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR16" t="inlineStr"/>
+      <c r="BS16" t="inlineStr"/>
+      <c r="BT16" t="inlineStr"/>
+      <c r="BU16" t="inlineStr"/>
+      <c r="BV16" t="inlineStr"/>
+      <c r="BW16" t="inlineStr">
+        <is>
+          <t>ABRIL RODRIGUEZ MARUGAN</t>
+        </is>
+      </c>
+      <c r="BX16" t="n">
+        <v>5</v>
+      </c>
+      <c r="BY16" t="inlineStr"/>
+      <c r="BZ16" t="inlineStr"/>
+      <c r="CA16" t="inlineStr"/>
+      <c r="CB16" t="inlineStr"/>
+      <c r="CC16" t="inlineStr"/>
+      <c r="CD16" t="inlineStr">
+        <is>
+          <t>LUCIA SANZ LUQUE</t>
+        </is>
+      </c>
+      <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="inlineStr"/>
+      <c r="CG16" t="inlineStr">
+        <is>
+          <t>24:03</t>
+        </is>
+      </c>
+      <c r="CH16" t="inlineStr"/>
+      <c r="CI16" t="inlineStr"/>
+      <c r="CJ16" t="inlineStr"/>
+      <c r="CK16" t="inlineStr">
+        <is>
+          <t>CARLA GARCIA GONZALEZ</t>
+        </is>
+      </c>
+      <c r="CL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM16" t="inlineStr"/>
+      <c r="CN16" t="inlineStr"/>
+      <c r="CO16" t="inlineStr"/>
+      <c r="CP16" t="inlineStr"/>
+      <c r="CQ16" t="inlineStr"/>
+      <c r="CR16" t="inlineStr">
+        <is>
+          <t>ANA RUIZ CANELA HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="CS16" t="n">
+        <v>7</v>
+      </c>
+      <c r="CT16" t="inlineStr"/>
+      <c r="CU16" t="inlineStr"/>
+      <c r="CV16" t="inlineStr"/>
+      <c r="CW16" t="inlineStr"/>
+      <c r="CX16" t="inlineStr"/>
+      <c r="CY16" t="inlineStr">
+        <is>
+          <t>CRISTINA NAVARRO PEREZ</t>
+        </is>
+      </c>
+      <c r="CZ16" t="n">
+        <v>4</v>
+      </c>
+      <c r="DA16" t="inlineStr"/>
+      <c r="DB16" t="inlineStr">
+        <is>
+          <t>39:08</t>
+        </is>
+      </c>
+      <c r="DC16" t="inlineStr"/>
+      <c r="DD16" t="inlineStr"/>
+      <c r="DE16" t="inlineStr"/>
+      <c r="DF16" t="inlineStr">
+        <is>
+          <t>CARLA RAFAEL FLORES</t>
+        </is>
+      </c>
+      <c r="DG16" t="n">
+        <v>11</v>
+      </c>
+      <c r="DH16" t="inlineStr"/>
+      <c r="DI16" t="inlineStr"/>
+      <c r="DJ16" t="inlineStr"/>
+      <c r="DK16" t="inlineStr"/>
+      <c r="DL16" t="inlineStr"/>
+      <c r="DM16" t="inlineStr">
+        <is>
+          <t>DANIELA ARRIAGA RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="DN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO16" t="inlineStr">
+        <is>
+          <t>04:10</t>
+        </is>
+      </c>
+      <c r="DP16" t="inlineStr"/>
+      <c r="DQ16" t="inlineStr"/>
+      <c r="DR16" t="inlineStr"/>
+      <c r="DS16" t="inlineStr"/>
+      <c r="DT16" t="inlineStr">
+        <is>
+          <t>MARTINA LUCENA COST</t>
+        </is>
+      </c>
+      <c r="DU16" t="n">
+        <v>4</v>
+      </c>
+      <c r="DV16" t="inlineStr"/>
+      <c r="DW16" t="inlineStr"/>
+      <c r="DX16" t="inlineStr"/>
+      <c r="DY16" t="inlineStr"/>
+      <c r="DZ16" t="inlineStr"/>
+      <c r="EA16" t="inlineStr">
+        <is>
+          <t>NOA BARCENILLA FRIAS</t>
+        </is>
+      </c>
+      <c r="EB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC16" t="inlineStr"/>
+      <c r="ED16" t="inlineStr"/>
+      <c r="EE16" t="inlineStr"/>
+      <c r="EF16" t="inlineStr"/>
+      <c r="EG16" t="inlineStr"/>
+      <c r="EH16" t="inlineStr">
+        <is>
+          <t>YLENIA INFANTES DE LA ROSA</t>
+        </is>
+      </c>
+      <c r="EI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ16" t="inlineStr"/>
+      <c r="EK16" t="inlineStr"/>
+      <c r="EL16" t="inlineStr"/>
+      <c r="EM16" t="inlineStr"/>
+      <c r="EN16" t="inlineStr"/>
+      <c r="EO16" t="inlineStr">
+        <is>
+          <t>NAIA CASILLAS GARCIA</t>
+        </is>
+      </c>
+      <c r="EP16" t="n">
+        <v>2</v>
+      </c>
+      <c r="EQ16" t="inlineStr"/>
+      <c r="ER16" t="inlineStr">
+        <is>
+          <t>06:31</t>
+        </is>
+      </c>
+      <c r="ES16" t="inlineStr">
+        <is>
+          <t>30:03</t>
+        </is>
+      </c>
+      <c r="ET16" t="inlineStr"/>
+      <c r="EU16" t="inlineStr"/>
+      <c r="EV16" t="inlineStr">
+        <is>
+          <t>ELENA GARCIA MARTINEZ</t>
+        </is>
+      </c>
+      <c r="EW16" t="n">
+        <v>6</v>
+      </c>
+      <c r="EX16" t="inlineStr"/>
+      <c r="EY16" t="inlineStr">
+        <is>
+          <t>44:24</t>
+        </is>
+      </c>
+      <c r="EZ16" t="inlineStr"/>
+      <c r="FA16" t="inlineStr"/>
+      <c r="FB16" t="inlineStr"/>
+      <c r="FC16" t="inlineStr">
+        <is>
+          <t>BLANCA MUÑIZ RIVAS</t>
+        </is>
+      </c>
+      <c r="FD16" t="n">
+        <v>4</v>
+      </c>
+      <c r="FE16" t="inlineStr"/>
+      <c r="FF16" t="inlineStr"/>
+      <c r="FG16" t="inlineStr"/>
+      <c r="FH16" t="inlineStr"/>
+      <c r="FI16" t="inlineStr"/>
+      <c r="FJ16" t="inlineStr">
+        <is>
+          <t>JIMENA FERNANDEZ CLAVIJO</t>
+        </is>
+      </c>
+      <c r="FK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL16" t="inlineStr"/>
+      <c r="FM16" t="inlineStr"/>
+      <c r="FN16" t="inlineStr"/>
+      <c r="FO16" t="inlineStr"/>
+      <c r="FP16" t="inlineStr"/>
+      <c r="FQ16" t="inlineStr">
+        <is>
+          <t>LUCIA GUTIERREZ DIEZ</t>
+        </is>
+      </c>
+      <c r="FR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS16" t="inlineStr"/>
+      <c r="FT16" t="inlineStr"/>
+      <c r="FU16" t="inlineStr"/>
+      <c r="FV16" t="inlineStr"/>
+      <c r="FW16" t="inlineStr"/>
+      <c r="FX16" t="inlineStr">
+        <is>
+          <t>MARTINA BRAVO GARCIA</t>
+        </is>
+      </c>
+      <c r="FY16" t="n">
+        <v>8</v>
+      </c>
+      <c r="FZ16" t="inlineStr"/>
+      <c r="GA16" t="inlineStr"/>
+      <c r="GB16" t="inlineStr"/>
+      <c r="GC16" t="inlineStr"/>
+      <c r="GD16" t="inlineStr"/>
+      <c r="GE16" t="inlineStr">
+        <is>
+          <t>LUCIA PERROTE ALVAREZ</t>
+        </is>
+      </c>
+      <c r="GF16" t="n">
+        <v>3</v>
+      </c>
+      <c r="GG16" t="inlineStr"/>
+      <c r="GH16" t="inlineStr">
+        <is>
+          <t>45:46</t>
+        </is>
+      </c>
+      <c r="GI16" t="inlineStr"/>
+      <c r="GJ16" t="inlineStr"/>
+      <c r="GK16" t="inlineStr"/>
+      <c r="GL16" t="inlineStr">
+        <is>
+          <t>ANGELINA BORREGO MIRAS</t>
+        </is>
+      </c>
+      <c r="GM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN16" t="inlineStr"/>
+      <c r="GO16" t="inlineStr"/>
+      <c r="GP16" t="inlineStr"/>
+      <c r="GQ16" t="inlineStr"/>
+      <c r="GR16" t="inlineStr"/>
+      <c r="GS16" t="inlineStr">
+        <is>
+          <t>AINARA ROBLES REY</t>
+        </is>
+      </c>
+      <c r="GT16" t="n">
+        <v>12</v>
+      </c>
+      <c r="GU16" t="inlineStr"/>
+      <c r="GV16" t="inlineStr">
+        <is>
+          <t>05:17</t>
+        </is>
+      </c>
+      <c r="GW16" t="inlineStr"/>
+      <c r="GX16" t="inlineStr"/>
+      <c r="GY16" t="inlineStr"/>
+      <c r="GZ16" t="inlineStr">
+        <is>
+          <t>ADRIANA VEGA MUÑOZ</t>
+        </is>
+      </c>
+      <c r="HA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB16" t="inlineStr"/>
+      <c r="HC16" t="inlineStr"/>
+      <c r="HD16" t="inlineStr"/>
+      <c r="HE16" t="inlineStr"/>
+      <c r="HF16" t="inlineStr"/>
+      <c r="HG16" t="inlineStr">
+        <is>
+          <t>SARA MARCOS MARTINEZ</t>
+        </is>
+      </c>
+      <c r="HH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI16" t="inlineStr"/>
+      <c r="HJ16" t="inlineStr">
+        <is>
+          <t>18:59</t>
+        </is>
+      </c>
+      <c r="HK16" t="inlineStr"/>
+      <c r="HL16" t="inlineStr"/>
+      <c r="HM16" t="inlineStr"/>
+      <c r="HN16" t="inlineStr">
+        <is>
+          <t>LOLA MARQUEZ MORALES</t>
+        </is>
+      </c>
+      <c r="HO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP16" t="inlineStr"/>
+      <c r="HQ16" t="inlineStr"/>
+      <c r="HR16" t="inlineStr"/>
+      <c r="HS16" t="inlineStr"/>
+      <c r="HT16" t="inlineStr"/>
+      <c r="HU16" t="inlineStr">
+        <is>
+          <t>ELENA LEAL GANGOSO</t>
+        </is>
+      </c>
+      <c r="HV16" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW16" t="inlineStr"/>
+      <c r="HX16" t="inlineStr"/>
+      <c r="HY16" t="inlineStr"/>
+      <c r="HZ16" t="inlineStr"/>
+      <c r="IA16" t="inlineStr"/>
+      <c r="IB16" t="inlineStr">
+        <is>
+          <t>EVA FERNANDEZ LOPEZ</t>
+        </is>
+      </c>
+      <c r="IC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID16" t="inlineStr"/>
+      <c r="IE16" t="inlineStr"/>
+      <c r="IF16" t="inlineStr"/>
+      <c r="IG16" t="inlineStr"/>
+      <c r="IH16" t="inlineStr"/>
+      <c r="II16" t="inlineStr">
+        <is>
+          <t>INES GARCIA SANCHEZ</t>
+        </is>
+      </c>
+      <c r="IJ16" t="n">
+        <v>3</v>
+      </c>
+      <c r="IK16" t="inlineStr"/>
+      <c r="IL16" t="inlineStr"/>
+      <c r="IM16" t="inlineStr"/>
+      <c r="IN16" t="inlineStr"/>
+      <c r="IO16" t="inlineStr"/>
+      <c r="IP16" t="inlineStr">
+        <is>
+          <t>CARLOTA DEL TORO PUENTE</t>
+        </is>
+      </c>
+      <c r="IQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR16" t="inlineStr"/>
+      <c r="IS16" t="inlineStr">
+        <is>
+          <t>05:48</t>
+        </is>
+      </c>
+      <c r="IT16" t="inlineStr">
+        <is>
+          <t>14:21</t>
+        </is>
+      </c>
+      <c r="IU16" t="inlineStr"/>
+      <c r="IV16" t="inlineStr"/>
+      <c r="IW16" t="inlineStr">
+        <is>
+          <t>VIOLETA SALMERON GIL</t>
+        </is>
+      </c>
+      <c r="IX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY16" t="inlineStr"/>
+      <c r="IZ16" t="inlineStr"/>
+      <c r="JA16" t="inlineStr"/>
+      <c r="JB16" t="inlineStr"/>
+      <c r="JC16" t="inlineStr"/>
+      <c r="JD16" t="inlineStr">
+        <is>
+          <t>ENTRENADOR</t>
+        </is>
+      </c>
+      <c r="JE16" t="inlineStr">
+        <is>
+          <t>AARON MARTIN FERNANDEZ</t>
+        </is>
+      </c>
+      <c r="JF16" t="inlineStr"/>
+      <c r="JG16" t="inlineStr"/>
+      <c r="JH16" t="inlineStr">
+        <is>
+          <t>AYTE ENTRENADOR</t>
+        </is>
+      </c>
+      <c r="JI16" t="inlineStr">
+        <is>
+          <t>MARTA RIVAS VIZCAINO</t>
+        </is>
+      </c>
+      <c r="JJ16" t="inlineStr"/>
+      <c r="JK16" t="inlineStr"/>
+      <c r="JL16" t="inlineStr">
+        <is>
+          <t>OFICIAL</t>
+        </is>
+      </c>
+      <c r="JM16" t="inlineStr">
+        <is>
+          <t>LAUREANO MARQUEZ RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="JN16" t="inlineStr"/>
+      <c r="JO16" t="inlineStr"/>
+      <c r="JP16" t="inlineStr">
+        <is>
+          <t>OFICIAL</t>
+        </is>
+      </c>
+      <c r="JQ16" t="inlineStr">
+        <is>
+          <t>ALFREDO ROQUE MATEOS RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="JR16" t="inlineStr"/>
+      <c r="JS16" t="inlineStr"/>
+      <c r="JT16" t="inlineStr"/>
+      <c r="JU16" t="inlineStr"/>
+      <c r="JV16" t="inlineStr"/>
+      <c r="JW16" t="inlineStr"/>
+      <c r="JX16" t="n">
+        <v>72</v>
+      </c>
+      <c r="JY16" t="n">
+        <v>2</v>
+      </c>
+      <c r="JZ16" t="n">
+        <v>2</v>
+      </c>
+      <c r="KA16" t="n">
+        <v>2</v>
+      </c>
+      <c r="KB16" t="n">
+        <v>6</v>
+      </c>
+      <c r="KC16" t="n">
+        <v>3</v>
+      </c>
+      <c r="KD16" t="n">
+        <v>5</v>
+      </c>
+      <c r="KE16" t="n">
+        <v>5</v>
+      </c>
+      <c r="KF16" t="n">
+        <v>4</v>
+      </c>
+      <c r="KG16" t="n">
+        <v>4</v>
+      </c>
+      <c r="KH16" t="n">
+        <v>4</v>
+      </c>
+      <c r="KI16" t="n">
+        <v>4</v>
+      </c>
+      <c r="KJ16" t="n">
+        <v>5</v>
+      </c>
+      <c r="KK16" t="n">
+        <v>2</v>
+      </c>
+      <c r="KL16" t="n">
+        <v>3</v>
+      </c>
+      <c r="KM16" t="n">
+        <v>3</v>
+      </c>
+      <c r="KN16" t="n">
+        <v>3</v>
+      </c>
+      <c r="KO16" t="n">
+        <v>4</v>
+      </c>
+      <c r="KP16" t="n">
+        <v>2</v>
+      </c>
+      <c r="KQ16" t="n">
+        <v>5</v>
+      </c>
+      <c r="KR16" t="n">
+        <v>4</v>
+      </c>
+      <c r="KS16" t="n">
+        <v>3</v>
+      </c>
+      <c r="KT16" t="n">
+        <v>2</v>
+      </c>
+      <c r="KU16" t="n">
+        <v>4</v>
+      </c>
+      <c r="KV16" t="n">
+        <v>3</v>
+      </c>
+      <c r="KW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA16" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LB16" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LC16" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LD16" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LE16" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LF16" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LG16" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LH16" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LI16" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LJ16" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LK16" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LL16" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LM16" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LN16" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LO16" t="n">
+        <v>2</v>
+      </c>
+      <c r="LP16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1455978</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>06/01/2025</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>MADRID IF</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>ARAG?N</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>28</v>
+      </c>
+      <c r="I17" t="n">
+        <v>24</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3</v>
+      </c>
+      <c r="M17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6</v>
+      </c>
+      <c r="O17" t="n">
+        <v>8</v>
+      </c>
+      <c r="P17" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9</v>
+      </c>
+      <c r="R17" t="n">
+        <v>12</v>
+      </c>
+      <c r="S17" t="n">
+        <v>11</v>
+      </c>
+      <c r="T17" t="n">
+        <v>14</v>
+      </c>
+      <c r="U17" t="n">
+        <v>14</v>
+      </c>
+      <c r="V17" t="n">
+        <v>17</v>
+      </c>
+      <c r="W17" t="n">
+        <v>16</v>
+      </c>
+      <c r="X17" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>24:23</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>19:41</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>37:14</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>44:26</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>VEGA HERRERA IGLESIAS</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AU17" t="inlineStr">
+        <is>
+          <t>CLAUDIA TEJERO CAMACHO</t>
+        </is>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="inlineStr"/>
+      <c r="AX17" t="inlineStr"/>
+      <c r="AY17" t="inlineStr"/>
+      <c r="AZ17" t="inlineStr"/>
+      <c r="BA17" t="inlineStr"/>
+      <c r="BB17" t="inlineStr">
+        <is>
+          <t>ZOE VACAS ROMERO</t>
+        </is>
+      </c>
+      <c r="BC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD17" t="inlineStr"/>
+      <c r="BE17" t="inlineStr"/>
+      <c r="BF17" t="inlineStr"/>
+      <c r="BG17" t="inlineStr"/>
+      <c r="BH17" t="inlineStr"/>
+      <c r="BI17" t="inlineStr">
+        <is>
+          <t>SALMA IDRISSI OUALI</t>
+        </is>
+      </c>
+      <c r="BJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK17" t="inlineStr"/>
+      <c r="BL17" t="inlineStr"/>
+      <c r="BM17" t="inlineStr"/>
+      <c r="BN17" t="inlineStr"/>
+      <c r="BO17" t="inlineStr"/>
+      <c r="BP17" t="inlineStr">
+        <is>
+          <t>MARINA SANJURJO DE DIOS</t>
+        </is>
+      </c>
+      <c r="BQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR17" t="inlineStr"/>
+      <c r="BS17" t="inlineStr">
+        <is>
+          <t>03:18</t>
+        </is>
+      </c>
+      <c r="BT17" t="inlineStr"/>
+      <c r="BU17" t="inlineStr"/>
+      <c r="BV17" t="inlineStr"/>
+      <c r="BW17" t="inlineStr">
+        <is>
+          <t>ELENA MORENO SOPENA</t>
+        </is>
+      </c>
+      <c r="BX17" t="n">
+        <v>5</v>
+      </c>
+      <c r="BY17" t="inlineStr"/>
+      <c r="BZ17" t="inlineStr"/>
+      <c r="CA17" t="inlineStr"/>
+      <c r="CB17" t="inlineStr"/>
+      <c r="CC17" t="inlineStr"/>
+      <c r="CD17" t="inlineStr">
+        <is>
+          <t>SURI ALVAREZ RUFINO</t>
+        </is>
+      </c>
+      <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="inlineStr"/>
+      <c r="CG17" t="inlineStr"/>
+      <c r="CH17" t="inlineStr"/>
+      <c r="CI17" t="inlineStr"/>
+      <c r="CJ17" t="inlineStr"/>
+      <c r="CK17" t="inlineStr">
+        <is>
+          <t>KAIRA DJELLOUL GAÑARUL</t>
+        </is>
+      </c>
+      <c r="CL17" t="n">
+        <v>4</v>
+      </c>
+      <c r="CM17" t="inlineStr"/>
+      <c r="CN17" t="inlineStr"/>
+      <c r="CO17" t="inlineStr"/>
+      <c r="CP17" t="inlineStr"/>
+      <c r="CQ17" t="inlineStr"/>
+      <c r="CR17" t="inlineStr">
+        <is>
+          <t>YAIZA RAMOS VIQUEIRA</t>
+        </is>
+      </c>
+      <c r="CS17" t="n">
+        <v>5</v>
+      </c>
+      <c r="CT17" t="inlineStr"/>
+      <c r="CU17" t="inlineStr"/>
+      <c r="CV17" t="inlineStr"/>
+      <c r="CW17" t="inlineStr"/>
+      <c r="CX17" t="inlineStr"/>
+      <c r="CY17" t="inlineStr">
+        <is>
+          <t>MARINA MAQUEDA FORNER</t>
+        </is>
+      </c>
+      <c r="CZ17" t="n">
+        <v>3</v>
+      </c>
+      <c r="DA17" t="inlineStr"/>
+      <c r="DB17" t="inlineStr"/>
+      <c r="DC17" t="inlineStr"/>
+      <c r="DD17" t="inlineStr"/>
+      <c r="DE17" t="inlineStr"/>
+      <c r="DF17" t="inlineStr">
+        <is>
+          <t>ROCIO AREVALO PEREZ</t>
+        </is>
+      </c>
+      <c r="DG17" t="n">
+        <v>3</v>
+      </c>
+      <c r="DH17" t="inlineStr"/>
+      <c r="DI17" t="inlineStr">
+        <is>
+          <t>09:23</t>
+        </is>
+      </c>
+      <c r="DJ17" t="inlineStr">
+        <is>
+          <t>36:32</t>
+        </is>
+      </c>
+      <c r="DK17" t="inlineStr">
+        <is>
+          <t>44:44</t>
+        </is>
+      </c>
+      <c r="DL17" t="inlineStr"/>
+      <c r="DM17" t="inlineStr">
+        <is>
+          <t>GOYA JIMENEZ CINTORA</t>
+        </is>
+      </c>
+      <c r="DN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO17" t="inlineStr"/>
+      <c r="DP17" t="inlineStr"/>
+      <c r="DQ17" t="inlineStr"/>
+      <c r="DR17" t="inlineStr"/>
+      <c r="DS17" t="inlineStr"/>
+      <c r="DT17" t="inlineStr">
+        <is>
+          <t>DANIELA ROJO CALABIA</t>
+        </is>
+      </c>
+      <c r="DU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV17" t="inlineStr"/>
+      <c r="DW17" t="inlineStr"/>
+      <c r="DX17" t="inlineStr"/>
+      <c r="DY17" t="inlineStr"/>
+      <c r="DZ17" t="inlineStr"/>
+      <c r="EA17" t="inlineStr">
+        <is>
+          <t>JIMENA COBOS SANCHEZ</t>
+        </is>
+      </c>
+      <c r="EB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC17" t="inlineStr"/>
+      <c r="ED17" t="inlineStr"/>
+      <c r="EE17" t="inlineStr"/>
+      <c r="EF17" t="inlineStr"/>
+      <c r="EG17" t="inlineStr"/>
+      <c r="EH17" t="inlineStr">
+        <is>
+          <t>DIANA LOPEZ JIMENEZ</t>
+        </is>
+      </c>
+      <c r="EI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ17" t="inlineStr"/>
+      <c r="EK17" t="inlineStr"/>
+      <c r="EL17" t="inlineStr"/>
+      <c r="EM17" t="inlineStr"/>
+      <c r="EN17" t="inlineStr"/>
+      <c r="EO17" t="inlineStr">
+        <is>
+          <t>INES BELTRAN BETRAN</t>
+        </is>
+      </c>
+      <c r="EP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ17" t="inlineStr"/>
+      <c r="ER17" t="inlineStr"/>
+      <c r="ES17" t="inlineStr"/>
+      <c r="ET17" t="inlineStr"/>
+      <c r="EU17" t="inlineStr"/>
+      <c r="EV17" t="inlineStr">
+        <is>
+          <t>VALERIA ISCAR GARCIA</t>
+        </is>
+      </c>
+      <c r="EW17" t="n">
+        <v>4</v>
+      </c>
+      <c r="EX17" t="inlineStr">
+        <is>
+          <t>02:22</t>
+        </is>
+      </c>
+      <c r="EY17" t="inlineStr">
+        <is>
+          <t>42:55</t>
+        </is>
+      </c>
+      <c r="EZ17" t="inlineStr"/>
+      <c r="FA17" t="inlineStr"/>
+      <c r="FB17" t="inlineStr"/>
+      <c r="FC17" t="inlineStr">
+        <is>
+          <t>IXEYA SOS RUBIO</t>
+        </is>
+      </c>
+      <c r="FD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE17" t="inlineStr"/>
+      <c r="FF17" t="inlineStr"/>
+      <c r="FG17" t="inlineStr"/>
+      <c r="FH17" t="inlineStr"/>
+      <c r="FI17" t="inlineStr"/>
+      <c r="FJ17" t="inlineStr">
+        <is>
+          <t>JULIA RUIZ ORTEGA</t>
+        </is>
+      </c>
+      <c r="FK17" t="n">
+        <v>5</v>
+      </c>
+      <c r="FL17" t="inlineStr"/>
+      <c r="FM17" t="inlineStr"/>
+      <c r="FN17" t="inlineStr"/>
+      <c r="FO17" t="inlineStr"/>
+      <c r="FP17" t="inlineStr"/>
+      <c r="FQ17" t="inlineStr">
+        <is>
+          <t>LETICIA GIL GRACIA</t>
+        </is>
+      </c>
+      <c r="FR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS17" t="inlineStr"/>
+      <c r="FT17" t="inlineStr"/>
+      <c r="FU17" t="inlineStr"/>
+      <c r="FV17" t="inlineStr"/>
+      <c r="FW17" t="inlineStr"/>
+      <c r="FX17" t="inlineStr">
+        <is>
+          <t>PAULA SANDRA NEGREA</t>
+        </is>
+      </c>
+      <c r="FY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ17" t="inlineStr"/>
+      <c r="GA17" t="inlineStr"/>
+      <c r="GB17" t="inlineStr"/>
+      <c r="GC17" t="inlineStr"/>
+      <c r="GD17" t="inlineStr"/>
+      <c r="GE17" t="inlineStr">
+        <is>
+          <t>VIOLETA SERRANO GRACIA</t>
+        </is>
+      </c>
+      <c r="GF17" t="n">
+        <v>4</v>
+      </c>
+      <c r="GG17" t="inlineStr"/>
+      <c r="GH17" t="inlineStr">
+        <is>
+          <t>46:38</t>
+        </is>
+      </c>
+      <c r="GI17" t="inlineStr"/>
+      <c r="GJ17" t="inlineStr"/>
+      <c r="GK17" t="inlineStr"/>
+      <c r="GL17" t="inlineStr">
+        <is>
+          <t>CRISTINA CRESPO PEREZ</t>
+        </is>
+      </c>
+      <c r="GM17" t="n">
+        <v>2</v>
+      </c>
+      <c r="GN17" t="inlineStr"/>
+      <c r="GO17" t="inlineStr"/>
+      <c r="GP17" t="inlineStr"/>
+      <c r="GQ17" t="inlineStr"/>
+      <c r="GR17" t="inlineStr"/>
+      <c r="GS17" t="inlineStr">
+        <is>
+          <t>ANNALEAK AKUAH MANU AGU</t>
+        </is>
+      </c>
+      <c r="GT17" t="n">
+        <v>3</v>
+      </c>
+      <c r="GU17" t="inlineStr"/>
+      <c r="GV17" t="inlineStr"/>
+      <c r="GW17" t="inlineStr"/>
+      <c r="GX17" t="inlineStr"/>
+      <c r="GY17" t="inlineStr"/>
+      <c r="GZ17" t="inlineStr">
+        <is>
+          <t>AITANA ALBA MUÑOZ</t>
+        </is>
+      </c>
+      <c r="HA17" t="n">
+        <v>3</v>
+      </c>
+      <c r="HB17" t="inlineStr"/>
+      <c r="HC17" t="inlineStr"/>
+      <c r="HD17" t="inlineStr"/>
+      <c r="HE17" t="inlineStr"/>
+      <c r="HF17" t="inlineStr"/>
+      <c r="HG17" t="inlineStr">
+        <is>
+          <t>CANDELA SANCHEZ AGUADO</t>
+        </is>
+      </c>
+      <c r="HH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI17" t="inlineStr"/>
+      <c r="HJ17" t="inlineStr"/>
+      <c r="HK17" t="inlineStr"/>
+      <c r="HL17" t="inlineStr"/>
+      <c r="HM17" t="inlineStr"/>
+      <c r="HN17" t="inlineStr">
+        <is>
+          <t>LAIA PAREDES BELLAVISTA</t>
+        </is>
+      </c>
+      <c r="HO17" t="n">
+        <v>3</v>
+      </c>
+      <c r="HP17" t="inlineStr"/>
+      <c r="HQ17" t="inlineStr"/>
+      <c r="HR17" t="inlineStr"/>
+      <c r="HS17" t="inlineStr"/>
+      <c r="HT17" t="inlineStr"/>
+      <c r="HU17" t="inlineStr">
+        <is>
+          <t>PAULA FARLETE CUESTA</t>
+        </is>
+      </c>
+      <c r="HV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW17" t="inlineStr"/>
+      <c r="HX17" t="inlineStr"/>
+      <c r="HY17" t="inlineStr"/>
+      <c r="HZ17" t="inlineStr"/>
+      <c r="IA17" t="inlineStr"/>
+      <c r="IB17" t="inlineStr">
+        <is>
+          <t>AFRICA DONDERIS SANCHEZ</t>
+        </is>
+      </c>
+      <c r="IC17" t="n">
+        <v>3</v>
+      </c>
+      <c r="ID17" t="inlineStr"/>
+      <c r="IE17" t="inlineStr"/>
+      <c r="IF17" t="inlineStr"/>
+      <c r="IG17" t="inlineStr"/>
+      <c r="IH17" t="inlineStr"/>
+      <c r="II17" t="inlineStr">
+        <is>
+          <t>MARTA SANCHO GARCIA-LISBONA</t>
+        </is>
+      </c>
+      <c r="IJ17" t="n">
+        <v>3</v>
+      </c>
+      <c r="IK17" t="inlineStr"/>
+      <c r="IL17" t="inlineStr"/>
+      <c r="IM17" t="inlineStr"/>
+      <c r="IN17" t="inlineStr"/>
+      <c r="IO17" t="inlineStr"/>
+      <c r="IP17" t="inlineStr">
+        <is>
+          <t>MARINA RUIZ-HIDALGO CASADO</t>
+        </is>
+      </c>
+      <c r="IQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR17" t="inlineStr"/>
+      <c r="IS17" t="inlineStr"/>
+      <c r="IT17" t="inlineStr"/>
+      <c r="IU17" t="inlineStr"/>
+      <c r="IV17" t="inlineStr"/>
+      <c r="IW17" t="inlineStr">
+        <is>
+          <t>GALA DOMINGUEZ CRESPO</t>
+        </is>
+      </c>
+      <c r="IX17" t="n">
+        <v>2</v>
+      </c>
+      <c r="IY17" t="inlineStr"/>
+      <c r="IZ17" t="inlineStr">
+        <is>
+          <t>22:55</t>
+        </is>
+      </c>
+      <c r="JA17" t="inlineStr"/>
+      <c r="JB17" t="inlineStr"/>
+      <c r="JC17" t="inlineStr"/>
+      <c r="JD17" t="inlineStr">
+        <is>
+          <t>ENTRENADOR</t>
+        </is>
+      </c>
+      <c r="JE17" t="inlineStr">
+        <is>
+          <t>ALEJANDRO ANREUS MACIAS</t>
+        </is>
+      </c>
+      <c r="JF17" t="inlineStr"/>
+      <c r="JG17" t="inlineStr"/>
+      <c r="JH17" t="inlineStr">
+        <is>
+          <t>AYTE ENTRENADOR</t>
+        </is>
+      </c>
+      <c r="JI17" t="inlineStr">
+        <is>
+          <t>BARBARA MARTIN JIMENEZ</t>
+        </is>
+      </c>
+      <c r="JJ17" t="inlineStr"/>
+      <c r="JK17" t="inlineStr"/>
+      <c r="JL17" t="inlineStr">
+        <is>
+          <t>OFICIAL</t>
+        </is>
+      </c>
+      <c r="JM17" t="inlineStr">
+        <is>
+          <t>SILVIA SANTAMARIA FERNANDEZ</t>
+        </is>
+      </c>
+      <c r="JN17" t="inlineStr"/>
+      <c r="JO17" t="inlineStr"/>
+      <c r="JP17" t="inlineStr">
+        <is>
+          <t>OFICIAL</t>
+        </is>
+      </c>
+      <c r="JQ17" t="inlineStr">
+        <is>
+          <t>ANA ISABEL OLIVER SANCHEZ</t>
+        </is>
+      </c>
+      <c r="JR17" t="inlineStr"/>
+      <c r="JS17" t="inlineStr"/>
+      <c r="JT17" t="inlineStr"/>
+      <c r="JU17" t="inlineStr"/>
+      <c r="JV17" t="inlineStr"/>
+      <c r="JW17" t="inlineStr"/>
+      <c r="JX17" t="n">
+        <v>52</v>
+      </c>
+      <c r="JY17" t="n">
+        <v>4</v>
+      </c>
+      <c r="JZ17" t="n">
+        <v>4</v>
+      </c>
+      <c r="KA17" t="n">
+        <v>5</v>
+      </c>
+      <c r="KB17" t="n">
+        <v>1</v>
+      </c>
+      <c r="KC17" t="n">
+        <v>1</v>
+      </c>
+      <c r="KD17" t="n">
+        <v>3</v>
+      </c>
+      <c r="KE17" t="n">
+        <v>2</v>
+      </c>
+      <c r="KF17" t="n">
+        <v>3</v>
+      </c>
+      <c r="KG17" t="n">
+        <v>3</v>
+      </c>
+      <c r="KH17" t="n">
+        <v>2</v>
+      </c>
+      <c r="KI17" t="n">
+        <v>2</v>
+      </c>
+      <c r="KJ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="KK17" t="n">
+        <v>4</v>
+      </c>
+      <c r="KL17" t="n">
+        <v>2</v>
+      </c>
+      <c r="KM17" t="n">
+        <v>2</v>
+      </c>
+      <c r="KN17" t="n">
+        <v>3</v>
+      </c>
+      <c r="KO17" t="n">
+        <v>3</v>
+      </c>
+      <c r="KP17" t="n">
+        <v>2</v>
+      </c>
+      <c r="KQ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="KR17" t="n">
+        <v>2</v>
+      </c>
+      <c r="KS17" t="n">
+        <v>4</v>
+      </c>
+      <c r="KT17" t="n">
+        <v>2</v>
+      </c>
+      <c r="KU17" t="n">
+        <v>6</v>
+      </c>
+      <c r="KV17" t="n">
+        <v>4</v>
+      </c>
+      <c r="KW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA17" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LB17" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LC17" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LD17" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LE17" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LF17" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LG17" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LH17" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LI17" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LJ17" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LK17" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LL17" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LM17" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LN17" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LO17" t="n">
+        <v>5</v>
+      </c>
+      <c r="LP17" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/partidos/partidos_CESA25IF.xlsx
+++ b/data/partidos/partidos_CESA25IF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:LP17"/>
+  <dimension ref="A1:LP21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14704,6 +14704,3111 @@
         <v>1</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1455979</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>SELECCION CANARIA INFANTIL FEMENINO</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>SEL. GALICIA INFANTIL FEMENINO</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>28</v>
+      </c>
+      <c r="I18" t="n">
+        <v>24</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>8</v>
+      </c>
+      <c r="O18" t="n">
+        <v>4</v>
+      </c>
+      <c r="P18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>9</v>
+      </c>
+      <c r="R18" t="n">
+        <v>10</v>
+      </c>
+      <c r="S18" t="n">
+        <v>11</v>
+      </c>
+      <c r="T18" t="n">
+        <v>13</v>
+      </c>
+      <c r="U18" t="n">
+        <v>13</v>
+      </c>
+      <c r="V18" t="n">
+        <v>18</v>
+      </c>
+      <c r="W18" t="n">
+        <v>15</v>
+      </c>
+      <c r="X18" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>20:56:00</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>14:48:00</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>33:18</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>ARLET SISCART MARTINEZ</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AU18" t="inlineStr">
+        <is>
+          <t>KARLA FERNANDEZ LOPEZ</t>
+        </is>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="inlineStr"/>
+      <c r="AX18" t="inlineStr"/>
+      <c r="AY18" t="inlineStr"/>
+      <c r="AZ18" t="inlineStr"/>
+      <c r="BA18" t="inlineStr"/>
+      <c r="BB18" t="inlineStr">
+        <is>
+          <t>OUMOU DIAO DIALLO</t>
+        </is>
+      </c>
+      <c r="BC18" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD18" t="inlineStr"/>
+      <c r="BE18" t="inlineStr"/>
+      <c r="BF18" t="inlineStr"/>
+      <c r="BG18" t="inlineStr"/>
+      <c r="BH18" t="inlineStr"/>
+      <c r="BI18" t="inlineStr">
+        <is>
+          <t>SARA SALOMON MOURIN</t>
+        </is>
+      </c>
+      <c r="BJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK18" t="inlineStr"/>
+      <c r="BL18" t="inlineStr">
+        <is>
+          <t>17:44</t>
+        </is>
+      </c>
+      <c r="BM18" t="inlineStr"/>
+      <c r="BN18" t="inlineStr"/>
+      <c r="BO18" t="inlineStr"/>
+      <c r="BP18" t="inlineStr">
+        <is>
+          <t>ENIA CABACES VILLARREAL</t>
+        </is>
+      </c>
+      <c r="BQ18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BR18" t="inlineStr"/>
+      <c r="BS18" t="inlineStr"/>
+      <c r="BT18" t="inlineStr"/>
+      <c r="BU18" t="inlineStr"/>
+      <c r="BV18" t="inlineStr"/>
+      <c r="BW18" t="inlineStr">
+        <is>
+          <t>AFRICA GOMEZ ROLAN</t>
+        </is>
+      </c>
+      <c r="BX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY18" t="inlineStr"/>
+      <c r="BZ18" t="inlineStr"/>
+      <c r="CA18" t="inlineStr"/>
+      <c r="CB18" t="inlineStr"/>
+      <c r="CC18" t="inlineStr"/>
+      <c r="CD18" t="inlineStr">
+        <is>
+          <t>ALBA PALACIOS GARCIA</t>
+        </is>
+      </c>
+      <c r="CE18" t="n">
+        <v>4</v>
+      </c>
+      <c r="CF18" t="inlineStr"/>
+      <c r="CG18" t="inlineStr"/>
+      <c r="CH18" t="inlineStr"/>
+      <c r="CI18" t="inlineStr"/>
+      <c r="CJ18" t="inlineStr"/>
+      <c r="CK18" t="inlineStr">
+        <is>
+          <t>CANDELA GUTIERREZ CARRAL</t>
+        </is>
+      </c>
+      <c r="CL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM18" t="inlineStr"/>
+      <c r="CN18" t="inlineStr"/>
+      <c r="CO18" t="inlineStr"/>
+      <c r="CP18" t="inlineStr"/>
+      <c r="CQ18" t="inlineStr"/>
+      <c r="CR18" t="inlineStr">
+        <is>
+          <t>JULIA SABADELL MARTINEZ</t>
+        </is>
+      </c>
+      <c r="CS18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT18" t="inlineStr"/>
+      <c r="CU18" t="inlineStr">
+        <is>
+          <t>28:16</t>
+        </is>
+      </c>
+      <c r="CV18" t="inlineStr"/>
+      <c r="CW18" t="inlineStr"/>
+      <c r="CX18" t="inlineStr"/>
+      <c r="CY18" t="inlineStr">
+        <is>
+          <t>PAULA LAGO ALONSO</t>
+        </is>
+      </c>
+      <c r="CZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA18" t="inlineStr"/>
+      <c r="DB18" t="inlineStr"/>
+      <c r="DC18" t="inlineStr"/>
+      <c r="DD18" t="inlineStr"/>
+      <c r="DE18" t="inlineStr"/>
+      <c r="DF18" t="inlineStr">
+        <is>
+          <t>MARIONA MONTESINOS GARCIA</t>
+        </is>
+      </c>
+      <c r="DG18" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH18" t="inlineStr">
+        <is>
+          <t>07:03</t>
+        </is>
+      </c>
+      <c r="DI18" t="inlineStr"/>
+      <c r="DJ18" t="inlineStr"/>
+      <c r="DK18" t="inlineStr"/>
+      <c r="DL18" t="inlineStr"/>
+      <c r="DM18" t="inlineStr">
+        <is>
+          <t>DANIELA FERNANDEZ DOMINGUEZ</t>
+        </is>
+      </c>
+      <c r="DN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO18" t="inlineStr"/>
+      <c r="DP18" t="inlineStr"/>
+      <c r="DQ18" t="inlineStr"/>
+      <c r="DR18" t="inlineStr"/>
+      <c r="DS18" t="inlineStr"/>
+      <c r="DT18" t="inlineStr">
+        <is>
+          <t>CARLOTA GERMAIN GARRIGA</t>
+        </is>
+      </c>
+      <c r="DU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV18" t="inlineStr"/>
+      <c r="DW18" t="inlineStr"/>
+      <c r="DX18" t="inlineStr"/>
+      <c r="DY18" t="inlineStr"/>
+      <c r="DZ18" t="inlineStr"/>
+      <c r="EA18" t="inlineStr">
+        <is>
+          <t>DANIELA FIGUEROA LOPEZ</t>
+        </is>
+      </c>
+      <c r="EB18" t="n">
+        <v>2</v>
+      </c>
+      <c r="EC18" t="inlineStr"/>
+      <c r="ED18" t="inlineStr"/>
+      <c r="EE18" t="inlineStr"/>
+      <c r="EF18" t="inlineStr"/>
+      <c r="EG18" t="inlineStr"/>
+      <c r="EH18" t="inlineStr">
+        <is>
+          <t>MARTINA MALLOLA COLOMER</t>
+        </is>
+      </c>
+      <c r="EI18" t="n">
+        <v>3</v>
+      </c>
+      <c r="EJ18" t="inlineStr"/>
+      <c r="EK18" t="inlineStr"/>
+      <c r="EL18" t="inlineStr"/>
+      <c r="EM18" t="inlineStr"/>
+      <c r="EN18" t="inlineStr"/>
+      <c r="EO18" t="inlineStr">
+        <is>
+          <t>JULIA MACEIRA IGLESIAS</t>
+        </is>
+      </c>
+      <c r="EP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ18" t="inlineStr"/>
+      <c r="ER18" t="inlineStr"/>
+      <c r="ES18" t="inlineStr"/>
+      <c r="ET18" t="inlineStr"/>
+      <c r="EU18" t="inlineStr"/>
+      <c r="EV18" t="inlineStr">
+        <is>
+          <t>LAIA VALLS RIERA</t>
+        </is>
+      </c>
+      <c r="EW18" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX18" t="inlineStr"/>
+      <c r="EY18" t="inlineStr"/>
+      <c r="EZ18" t="inlineStr"/>
+      <c r="FA18" t="inlineStr"/>
+      <c r="FB18" t="inlineStr"/>
+      <c r="FC18" t="inlineStr">
+        <is>
+          <t>UXIA SOTELO LOPEZ</t>
+        </is>
+      </c>
+      <c r="FD18" t="n">
+        <v>3</v>
+      </c>
+      <c r="FE18" t="inlineStr"/>
+      <c r="FF18" t="inlineStr"/>
+      <c r="FG18" t="inlineStr"/>
+      <c r="FH18" t="inlineStr"/>
+      <c r="FI18" t="inlineStr"/>
+      <c r="FJ18" t="inlineStr">
+        <is>
+          <t>BERTA MARTINEZ PEÑA</t>
+        </is>
+      </c>
+      <c r="FK18" t="n">
+        <v>2</v>
+      </c>
+      <c r="FL18" t="inlineStr"/>
+      <c r="FM18" t="inlineStr"/>
+      <c r="FN18" t="inlineStr"/>
+      <c r="FO18" t="inlineStr"/>
+      <c r="FP18" t="inlineStr"/>
+      <c r="FQ18" t="inlineStr">
+        <is>
+          <t>ANGELA MARTINEZ RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="FR18" t="n">
+        <v>7</v>
+      </c>
+      <c r="FS18" t="inlineStr"/>
+      <c r="FT18" t="inlineStr">
+        <is>
+          <t>38:42</t>
+        </is>
+      </c>
+      <c r="FU18" t="inlineStr"/>
+      <c r="FV18" t="inlineStr"/>
+      <c r="FW18" t="inlineStr"/>
+      <c r="FX18" t="inlineStr">
+        <is>
+          <t>LAURA MARIA JORIN DIEZ</t>
+        </is>
+      </c>
+      <c r="FY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ18" t="inlineStr"/>
+      <c r="GA18" t="inlineStr"/>
+      <c r="GB18" t="inlineStr"/>
+      <c r="GC18" t="inlineStr"/>
+      <c r="GD18" t="inlineStr"/>
+      <c r="GE18" t="inlineStr">
+        <is>
+          <t>DANIELA ALVAREZ LOMBA</t>
+        </is>
+      </c>
+      <c r="GF18" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG18" t="inlineStr"/>
+      <c r="GH18" t="inlineStr"/>
+      <c r="GI18" t="inlineStr"/>
+      <c r="GJ18" t="inlineStr"/>
+      <c r="GK18" t="inlineStr"/>
+      <c r="GL18" t="inlineStr">
+        <is>
+          <t>NORA IGLESIAS DE LA FUENTE</t>
+        </is>
+      </c>
+      <c r="GM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN18" t="inlineStr"/>
+      <c r="GO18" t="inlineStr"/>
+      <c r="GP18" t="inlineStr"/>
+      <c r="GQ18" t="inlineStr"/>
+      <c r="GR18" t="inlineStr"/>
+      <c r="GS18" t="inlineStr">
+        <is>
+          <t>AINHOA BLANCO SANCHEZ</t>
+        </is>
+      </c>
+      <c r="GT18" t="n">
+        <v>6</v>
+      </c>
+      <c r="GU18" t="inlineStr">
+        <is>
+          <t>17:22</t>
+        </is>
+      </c>
+      <c r="GV18" t="inlineStr"/>
+      <c r="GW18" t="inlineStr"/>
+      <c r="GX18" t="inlineStr"/>
+      <c r="GY18" t="inlineStr"/>
+      <c r="GZ18" t="inlineStr">
+        <is>
+          <t>MARTINA CASTELLANO RUBIO</t>
+        </is>
+      </c>
+      <c r="HA18" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB18" t="inlineStr"/>
+      <c r="HC18" t="inlineStr"/>
+      <c r="HD18" t="inlineStr"/>
+      <c r="HE18" t="inlineStr"/>
+      <c r="HF18" t="inlineStr"/>
+      <c r="HG18" t="inlineStr">
+        <is>
+          <t>ANGELA SANCHEZ SIMION</t>
+        </is>
+      </c>
+      <c r="HH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI18" t="inlineStr"/>
+      <c r="HJ18" t="inlineStr"/>
+      <c r="HK18" t="inlineStr"/>
+      <c r="HL18" t="inlineStr"/>
+      <c r="HM18" t="inlineStr"/>
+      <c r="HN18" t="inlineStr">
+        <is>
+          <t>LARA MARTINEZ DIAZ</t>
+        </is>
+      </c>
+      <c r="HO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP18" t="inlineStr"/>
+      <c r="HQ18" t="inlineStr"/>
+      <c r="HR18" t="inlineStr"/>
+      <c r="HS18" t="inlineStr"/>
+      <c r="HT18" t="inlineStr"/>
+      <c r="HU18" t="inlineStr">
+        <is>
+          <t>NOA OTON MARTA</t>
+        </is>
+      </c>
+      <c r="HV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW18" t="inlineStr"/>
+      <c r="HX18" t="inlineStr"/>
+      <c r="HY18" t="inlineStr"/>
+      <c r="HZ18" t="inlineStr"/>
+      <c r="IA18" t="inlineStr"/>
+      <c r="IB18" t="inlineStr">
+        <is>
+          <t>KIRA BUJAN GOMEZ</t>
+        </is>
+      </c>
+      <c r="IC18" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID18" t="inlineStr"/>
+      <c r="IE18" t="inlineStr"/>
+      <c r="IF18" t="inlineStr"/>
+      <c r="IG18" t="inlineStr"/>
+      <c r="IH18" t="inlineStr"/>
+      <c r="II18" t="inlineStr">
+        <is>
+          <t>RACHEL ORTIZ DELGADO</t>
+        </is>
+      </c>
+      <c r="IJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK18" t="inlineStr"/>
+      <c r="IL18" t="inlineStr"/>
+      <c r="IM18" t="inlineStr"/>
+      <c r="IN18" t="inlineStr"/>
+      <c r="IO18" t="inlineStr"/>
+      <c r="IP18" t="inlineStr">
+        <is>
+          <t>MARIA PASCUAL MOLL</t>
+        </is>
+      </c>
+      <c r="IQ18" t="n">
+        <v>6</v>
+      </c>
+      <c r="IR18" t="inlineStr"/>
+      <c r="IS18" t="inlineStr"/>
+      <c r="IT18" t="inlineStr"/>
+      <c r="IU18" t="inlineStr"/>
+      <c r="IV18" t="inlineStr"/>
+      <c r="IW18" t="inlineStr">
+        <is>
+          <t>DANIELA MIGUEZ OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="IX18" t="n">
+        <v>5</v>
+      </c>
+      <c r="IY18" t="inlineStr"/>
+      <c r="IZ18" t="inlineStr"/>
+      <c r="JA18" t="inlineStr"/>
+      <c r="JB18" t="inlineStr"/>
+      <c r="JC18" t="inlineStr"/>
+      <c r="JD18" t="inlineStr">
+        <is>
+          <t>ENTRENADOR</t>
+        </is>
+      </c>
+      <c r="JE18" t="inlineStr">
+        <is>
+          <t>CAROLINA CARMONA VILAR</t>
+        </is>
+      </c>
+      <c r="JF18" t="inlineStr"/>
+      <c r="JG18" t="inlineStr"/>
+      <c r="JH18" t="inlineStr">
+        <is>
+          <t>AYTE ENTRENADOR</t>
+        </is>
+      </c>
+      <c r="JI18" t="inlineStr">
+        <is>
+          <t>SARA GARCIA CERVERA</t>
+        </is>
+      </c>
+      <c r="JJ18" t="inlineStr"/>
+      <c r="JK18" t="inlineStr"/>
+      <c r="JL18" t="inlineStr">
+        <is>
+          <t>OFICIAL</t>
+        </is>
+      </c>
+      <c r="JM18" t="inlineStr">
+        <is>
+          <t>XAVIER AROS SANTIAGO</t>
+        </is>
+      </c>
+      <c r="JN18" t="inlineStr"/>
+      <c r="JO18" t="inlineStr"/>
+      <c r="JP18" t="inlineStr">
+        <is>
+          <t>OFICIAL</t>
+        </is>
+      </c>
+      <c r="JQ18" t="inlineStr">
+        <is>
+          <t>NURIA ROSELL POU</t>
+        </is>
+      </c>
+      <c r="JR18" t="inlineStr"/>
+      <c r="JS18" t="inlineStr"/>
+      <c r="JT18" t="inlineStr"/>
+      <c r="JU18" t="inlineStr"/>
+      <c r="JV18" t="inlineStr"/>
+      <c r="JW18" t="inlineStr"/>
+      <c r="JX18" t="n">
+        <v>52</v>
+      </c>
+      <c r="JY18" t="n">
+        <v>4</v>
+      </c>
+      <c r="JZ18" t="n">
+        <v>4</v>
+      </c>
+      <c r="KA18" t="n">
+        <v>1</v>
+      </c>
+      <c r="KB18" t="n">
+        <v>2</v>
+      </c>
+      <c r="KC18" t="n">
+        <v>3</v>
+      </c>
+      <c r="KD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE18" t="n">
+        <v>2</v>
+      </c>
+      <c r="KF18" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG18" t="n">
+        <v>3</v>
+      </c>
+      <c r="KH18" t="n">
+        <v>3</v>
+      </c>
+      <c r="KI18" t="n">
+        <v>2</v>
+      </c>
+      <c r="KJ18" t="n">
+        <v>5</v>
+      </c>
+      <c r="KK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL18" t="n">
+        <v>2</v>
+      </c>
+      <c r="KM18" t="n">
+        <v>3</v>
+      </c>
+      <c r="KN18" t="n">
+        <v>2</v>
+      </c>
+      <c r="KO18" t="n">
+        <v>5</v>
+      </c>
+      <c r="KP18" t="n">
+        <v>2</v>
+      </c>
+      <c r="KQ18" t="n">
+        <v>3</v>
+      </c>
+      <c r="KR18" t="n">
+        <v>4</v>
+      </c>
+      <c r="KS18" t="n">
+        <v>5</v>
+      </c>
+      <c r="KT18" t="n">
+        <v>2</v>
+      </c>
+      <c r="KU18" t="n">
+        <v>2</v>
+      </c>
+      <c r="KV18" t="n">
+        <v>3</v>
+      </c>
+      <c r="KW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA18" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LB18" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LC18" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LD18" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LE18" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LF18" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LG18" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LH18" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LI18" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LJ18" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LK18" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LL18" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LM18" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LN18" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LO18" t="n">
+        <v>1</v>
+      </c>
+      <c r="LP18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1455980</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>ANDALUCIA INFANTIL FEMENINO</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>MADRID IF</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>26</v>
+      </c>
+      <c r="I19" t="n">
+        <v>24</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>8</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>7</v>
+      </c>
+      <c r="P19" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>9</v>
+      </c>
+      <c r="R19" t="n">
+        <v>15</v>
+      </c>
+      <c r="S19" t="n">
+        <v>12</v>
+      </c>
+      <c r="T19" t="n">
+        <v>17</v>
+      </c>
+      <c r="U19" t="n">
+        <v>16</v>
+      </c>
+      <c r="V19" t="n">
+        <v>18</v>
+      </c>
+      <c r="W19" t="n">
+        <v>18</v>
+      </c>
+      <c r="X19" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>24:43</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>09:06</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>37:29</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>43:57</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>46:58</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>ESPERANZA GARCIA MARCHENA</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AU19" t="inlineStr">
+        <is>
+          <t>VEGA HERRERA IGLESIAS</t>
+        </is>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="inlineStr"/>
+      <c r="AX19" t="inlineStr"/>
+      <c r="AY19" t="inlineStr"/>
+      <c r="AZ19" t="inlineStr"/>
+      <c r="BA19" t="inlineStr"/>
+      <c r="BB19" t="inlineStr">
+        <is>
+          <t>AYSEL ESTRADA CID</t>
+        </is>
+      </c>
+      <c r="BC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD19" t="inlineStr"/>
+      <c r="BE19" t="inlineStr"/>
+      <c r="BF19" t="inlineStr"/>
+      <c r="BG19" t="inlineStr"/>
+      <c r="BH19" t="inlineStr"/>
+      <c r="BI19" t="inlineStr">
+        <is>
+          <t>ZOE VACAS ROMERO</t>
+        </is>
+      </c>
+      <c r="BJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK19" t="inlineStr"/>
+      <c r="BL19" t="inlineStr"/>
+      <c r="BM19" t="inlineStr"/>
+      <c r="BN19" t="inlineStr"/>
+      <c r="BO19" t="inlineStr"/>
+      <c r="BP19" t="inlineStr">
+        <is>
+          <t>ABIGAIL LEMA QUINA</t>
+        </is>
+      </c>
+      <c r="BQ19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BR19" t="inlineStr"/>
+      <c r="BS19" t="inlineStr"/>
+      <c r="BT19" t="inlineStr"/>
+      <c r="BU19" t="inlineStr"/>
+      <c r="BV19" t="inlineStr"/>
+      <c r="BW19" t="inlineStr">
+        <is>
+          <t>MARINA SANJURJO DE DIOS</t>
+        </is>
+      </c>
+      <c r="BX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY19" t="inlineStr"/>
+      <c r="BZ19" t="inlineStr"/>
+      <c r="CA19" t="inlineStr"/>
+      <c r="CB19" t="inlineStr"/>
+      <c r="CC19" t="inlineStr"/>
+      <c r="CD19" t="inlineStr">
+        <is>
+          <t>LUCIA SANZ LUQUE</t>
+        </is>
+      </c>
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="inlineStr"/>
+      <c r="CG19" t="inlineStr"/>
+      <c r="CH19" t="inlineStr"/>
+      <c r="CI19" t="inlineStr"/>
+      <c r="CJ19" t="inlineStr"/>
+      <c r="CK19" t="inlineStr">
+        <is>
+          <t>SURI ALVAREZ RUFINO</t>
+        </is>
+      </c>
+      <c r="CL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM19" t="inlineStr"/>
+      <c r="CN19" t="inlineStr"/>
+      <c r="CO19" t="inlineStr"/>
+      <c r="CP19" t="inlineStr"/>
+      <c r="CQ19" t="inlineStr"/>
+      <c r="CR19" t="inlineStr">
+        <is>
+          <t>ANA RUIZ CANELA HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="CS19" t="n">
+        <v>2</v>
+      </c>
+      <c r="CT19" t="inlineStr"/>
+      <c r="CU19" t="inlineStr">
+        <is>
+          <t>30:13</t>
+        </is>
+      </c>
+      <c r="CV19" t="inlineStr"/>
+      <c r="CW19" t="inlineStr"/>
+      <c r="CX19" t="inlineStr"/>
+      <c r="CY19" t="inlineStr">
+        <is>
+          <t>YAIZA RAMOS VIQUEIRA</t>
+        </is>
+      </c>
+      <c r="CZ19" t="n">
+        <v>2</v>
+      </c>
+      <c r="DA19" t="inlineStr"/>
+      <c r="DB19" t="inlineStr"/>
+      <c r="DC19" t="inlineStr"/>
+      <c r="DD19" t="inlineStr"/>
+      <c r="DE19" t="inlineStr"/>
+      <c r="DF19" t="inlineStr">
+        <is>
+          <t>CARLA RAFAEL FLORES</t>
+        </is>
+      </c>
+      <c r="DG19" t="n">
+        <v>3</v>
+      </c>
+      <c r="DH19" t="inlineStr"/>
+      <c r="DI19" t="inlineStr"/>
+      <c r="DJ19" t="inlineStr"/>
+      <c r="DK19" t="inlineStr"/>
+      <c r="DL19" t="inlineStr"/>
+      <c r="DM19" t="inlineStr">
+        <is>
+          <t>ROCIO AREVALO PEREZ</t>
+        </is>
+      </c>
+      <c r="DN19" t="n">
+        <v>2</v>
+      </c>
+      <c r="DO19" t="inlineStr"/>
+      <c r="DP19" t="inlineStr"/>
+      <c r="DQ19" t="inlineStr"/>
+      <c r="DR19" t="inlineStr"/>
+      <c r="DS19" t="inlineStr"/>
+      <c r="DT19" t="inlineStr">
+        <is>
+          <t>MARTINA LUCENA COST</t>
+        </is>
+      </c>
+      <c r="DU19" t="n">
+        <v>3</v>
+      </c>
+      <c r="DV19" t="inlineStr"/>
+      <c r="DW19" t="inlineStr"/>
+      <c r="DX19" t="inlineStr"/>
+      <c r="DY19" t="inlineStr"/>
+      <c r="DZ19" t="inlineStr"/>
+      <c r="EA19" t="inlineStr">
+        <is>
+          <t>DANIELA ROJO CALABIA</t>
+        </is>
+      </c>
+      <c r="EB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC19" t="inlineStr"/>
+      <c r="ED19" t="inlineStr"/>
+      <c r="EE19" t="inlineStr"/>
+      <c r="EF19" t="inlineStr"/>
+      <c r="EG19" t="inlineStr"/>
+      <c r="EH19" t="inlineStr">
+        <is>
+          <t>YLENIA INFANTES DE LA ROSA</t>
+        </is>
+      </c>
+      <c r="EI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ19" t="inlineStr"/>
+      <c r="EK19" t="inlineStr"/>
+      <c r="EL19" t="inlineStr"/>
+      <c r="EM19" t="inlineStr"/>
+      <c r="EN19" t="inlineStr"/>
+      <c r="EO19" t="inlineStr">
+        <is>
+          <t>DIANA LOPEZ JIMENEZ</t>
+        </is>
+      </c>
+      <c r="EP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ19" t="inlineStr"/>
+      <c r="ER19" t="inlineStr"/>
+      <c r="ES19" t="inlineStr"/>
+      <c r="ET19" t="inlineStr"/>
+      <c r="EU19" t="inlineStr"/>
+      <c r="EV19" t="inlineStr">
+        <is>
+          <t>ELENA GARCIA MARTINEZ</t>
+        </is>
+      </c>
+      <c r="EW19" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX19" t="inlineStr"/>
+      <c r="EY19" t="inlineStr"/>
+      <c r="EZ19" t="inlineStr"/>
+      <c r="FA19" t="inlineStr"/>
+      <c r="FB19" t="inlineStr"/>
+      <c r="FC19" t="inlineStr">
+        <is>
+          <t>VALERIA ISCAR GARCIA</t>
+        </is>
+      </c>
+      <c r="FD19" t="n">
+        <v>5</v>
+      </c>
+      <c r="FE19" t="inlineStr"/>
+      <c r="FF19" t="inlineStr">
+        <is>
+          <t>48:21</t>
+        </is>
+      </c>
+      <c r="FG19" t="inlineStr"/>
+      <c r="FH19" t="inlineStr"/>
+      <c r="FI19" t="inlineStr"/>
+      <c r="FJ19" t="inlineStr">
+        <is>
+          <t>JIMENA FERNANDEZ CLAVIJO</t>
+        </is>
+      </c>
+      <c r="FK19" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL19" t="inlineStr"/>
+      <c r="FM19" t="inlineStr"/>
+      <c r="FN19" t="inlineStr"/>
+      <c r="FO19" t="inlineStr"/>
+      <c r="FP19" t="inlineStr"/>
+      <c r="FQ19" t="inlineStr">
+        <is>
+          <t>JULIA RUIZ ORTEGA</t>
+        </is>
+      </c>
+      <c r="FR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS19" t="inlineStr"/>
+      <c r="FT19" t="inlineStr"/>
+      <c r="FU19" t="inlineStr"/>
+      <c r="FV19" t="inlineStr"/>
+      <c r="FW19" t="inlineStr"/>
+      <c r="FX19" t="inlineStr">
+        <is>
+          <t>MARTINA BRAVO GARCIA</t>
+        </is>
+      </c>
+      <c r="FY19" t="n">
+        <v>9</v>
+      </c>
+      <c r="FZ19" t="inlineStr"/>
+      <c r="GA19" t="inlineStr"/>
+      <c r="GB19" t="inlineStr"/>
+      <c r="GC19" t="inlineStr"/>
+      <c r="GD19" t="inlineStr"/>
+      <c r="GE19" t="inlineStr">
+        <is>
+          <t>PAULA SANDRA NEGREA</t>
+        </is>
+      </c>
+      <c r="GF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG19" t="inlineStr"/>
+      <c r="GH19" t="inlineStr"/>
+      <c r="GI19" t="inlineStr"/>
+      <c r="GJ19" t="inlineStr"/>
+      <c r="GK19" t="inlineStr"/>
+      <c r="GL19" t="inlineStr">
+        <is>
+          <t>ANGELINA BORREGO MIRAS</t>
+        </is>
+      </c>
+      <c r="GM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN19" t="inlineStr"/>
+      <c r="GO19" t="inlineStr"/>
+      <c r="GP19" t="inlineStr"/>
+      <c r="GQ19" t="inlineStr"/>
+      <c r="GR19" t="inlineStr"/>
+      <c r="GS19" t="inlineStr">
+        <is>
+          <t>CRISTINA CRESPO PEREZ</t>
+        </is>
+      </c>
+      <c r="GT19" t="n">
+        <v>3</v>
+      </c>
+      <c r="GU19" t="inlineStr"/>
+      <c r="GV19" t="inlineStr"/>
+      <c r="GW19" t="inlineStr"/>
+      <c r="GX19" t="inlineStr"/>
+      <c r="GY19" t="inlineStr"/>
+      <c r="GZ19" t="inlineStr">
+        <is>
+          <t>ADRIANA VEGA MUÑOZ</t>
+        </is>
+      </c>
+      <c r="HA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB19" t="inlineStr"/>
+      <c r="HC19" t="inlineStr"/>
+      <c r="HD19" t="inlineStr"/>
+      <c r="HE19" t="inlineStr"/>
+      <c r="HF19" t="inlineStr"/>
+      <c r="HG19" t="inlineStr">
+        <is>
+          <t>AITANA ALBA MUÑOZ</t>
+        </is>
+      </c>
+      <c r="HH19" t="n">
+        <v>4</v>
+      </c>
+      <c r="HI19" t="inlineStr"/>
+      <c r="HJ19" t="inlineStr"/>
+      <c r="HK19" t="inlineStr"/>
+      <c r="HL19" t="inlineStr"/>
+      <c r="HM19" t="inlineStr"/>
+      <c r="HN19" t="inlineStr">
+        <is>
+          <t>LOLA MARQUEZ MORALES</t>
+        </is>
+      </c>
+      <c r="HO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP19" t="inlineStr"/>
+      <c r="HQ19" t="inlineStr"/>
+      <c r="HR19" t="inlineStr"/>
+      <c r="HS19" t="inlineStr"/>
+      <c r="HT19" t="inlineStr"/>
+      <c r="HU19" t="inlineStr">
+        <is>
+          <t>LAIA PAREDES BELLAVISTA</t>
+        </is>
+      </c>
+      <c r="HV19" t="n">
+        <v>5</v>
+      </c>
+      <c r="HW19" t="inlineStr"/>
+      <c r="HX19" t="inlineStr"/>
+      <c r="HY19" t="inlineStr"/>
+      <c r="HZ19" t="inlineStr"/>
+      <c r="IA19" t="inlineStr"/>
+      <c r="IB19" t="inlineStr">
+        <is>
+          <t>EVA FERNANDEZ LOPEZ</t>
+        </is>
+      </c>
+      <c r="IC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID19" t="inlineStr"/>
+      <c r="IE19" t="inlineStr"/>
+      <c r="IF19" t="inlineStr"/>
+      <c r="IG19" t="inlineStr"/>
+      <c r="IH19" t="inlineStr"/>
+      <c r="II19" t="inlineStr">
+        <is>
+          <t>AFRICA DONDERIS SANCHEZ</t>
+        </is>
+      </c>
+      <c r="IJ19" t="n">
+        <v>3</v>
+      </c>
+      <c r="IK19" t="inlineStr"/>
+      <c r="IL19" t="inlineStr"/>
+      <c r="IM19" t="inlineStr"/>
+      <c r="IN19" t="inlineStr"/>
+      <c r="IO19" t="inlineStr"/>
+      <c r="IP19" t="inlineStr">
+        <is>
+          <t>CARLOTA DEL TORO PUENTE</t>
+        </is>
+      </c>
+      <c r="IQ19" t="n">
+        <v>3</v>
+      </c>
+      <c r="IR19" t="inlineStr"/>
+      <c r="IS19" t="inlineStr"/>
+      <c r="IT19" t="inlineStr"/>
+      <c r="IU19" t="inlineStr"/>
+      <c r="IV19" t="inlineStr"/>
+      <c r="IW19" t="inlineStr">
+        <is>
+          <t>MARINA RUIZ-HIDALGO CASADO</t>
+        </is>
+      </c>
+      <c r="IX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY19" t="inlineStr"/>
+      <c r="IZ19" t="inlineStr"/>
+      <c r="JA19" t="inlineStr"/>
+      <c r="JB19" t="inlineStr"/>
+      <c r="JC19" t="inlineStr"/>
+      <c r="JD19" t="inlineStr">
+        <is>
+          <t>ENTRENADOR</t>
+        </is>
+      </c>
+      <c r="JE19" t="inlineStr">
+        <is>
+          <t>AARON MARTIN FERNANDEZ</t>
+        </is>
+      </c>
+      <c r="JF19" t="inlineStr"/>
+      <c r="JG19" t="inlineStr"/>
+      <c r="JH19" t="inlineStr">
+        <is>
+          <t>AYTE ENTRENADOR</t>
+        </is>
+      </c>
+      <c r="JI19" t="inlineStr">
+        <is>
+          <t>MARTA RIVAS VIZCAINO</t>
+        </is>
+      </c>
+      <c r="JJ19" t="inlineStr"/>
+      <c r="JK19" t="inlineStr"/>
+      <c r="JL19" t="inlineStr">
+        <is>
+          <t>OFICIAL</t>
+        </is>
+      </c>
+      <c r="JM19" t="inlineStr">
+        <is>
+          <t>LAUREANO MARQUEZ RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="JN19" t="inlineStr"/>
+      <c r="JO19" t="inlineStr"/>
+      <c r="JP19" t="inlineStr">
+        <is>
+          <t>OFICIAL</t>
+        </is>
+      </c>
+      <c r="JQ19" t="inlineStr">
+        <is>
+          <t>MARINA ROMERO LUNA</t>
+        </is>
+      </c>
+      <c r="JR19" t="inlineStr"/>
+      <c r="JS19" t="inlineStr"/>
+      <c r="JT19" t="inlineStr"/>
+      <c r="JU19" t="inlineStr"/>
+      <c r="JV19" t="inlineStr"/>
+      <c r="JW19" t="inlineStr"/>
+      <c r="JX19" t="n">
+        <v>50</v>
+      </c>
+      <c r="JY19" t="n">
+        <v>2</v>
+      </c>
+      <c r="JZ19" t="n">
+        <v>2</v>
+      </c>
+      <c r="KA19" t="n">
+        <v>1</v>
+      </c>
+      <c r="KB19" t="n">
+        <v>1</v>
+      </c>
+      <c r="KC19" t="n">
+        <v>3</v>
+      </c>
+      <c r="KD19" t="n">
+        <v>2</v>
+      </c>
+      <c r="KE19" t="n">
+        <v>5</v>
+      </c>
+      <c r="KF19" t="n">
+        <v>3</v>
+      </c>
+      <c r="KG19" t="n">
+        <v>2</v>
+      </c>
+      <c r="KH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="KI19" t="n">
+        <v>3</v>
+      </c>
+      <c r="KJ19" t="n">
+        <v>2</v>
+      </c>
+      <c r="KK19" t="n">
+        <v>2</v>
+      </c>
+      <c r="KL19" t="n">
+        <v>3</v>
+      </c>
+      <c r="KM19" t="n">
+        <v>2</v>
+      </c>
+      <c r="KN19" t="n">
+        <v>4</v>
+      </c>
+      <c r="KO19" t="n">
+        <v>1</v>
+      </c>
+      <c r="KP19" t="n">
+        <v>2</v>
+      </c>
+      <c r="KQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR19" t="n">
+        <v>1</v>
+      </c>
+      <c r="KS19" t="n">
+        <v>4</v>
+      </c>
+      <c r="KT19" t="n">
+        <v>2</v>
+      </c>
+      <c r="KU19" t="n">
+        <v>4</v>
+      </c>
+      <c r="KV19" t="n">
+        <v>3</v>
+      </c>
+      <c r="KW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA19" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LB19" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LC19" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LD19" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LE19" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LF19" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LG19" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LH19" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LI19" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LJ19" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LK19" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LL19" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LM19" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LN19" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LO19" t="n">
+        <v>1</v>
+      </c>
+      <c r="LP19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1455983</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>SELECCION CANARIA INFANTIL FEMENINO</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>SEL. ASTURIAS INFANTIL FEMENINO</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>29</v>
+      </c>
+      <c r="I20" t="n">
+        <v>25</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>4</v>
+      </c>
+      <c r="P20" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9</v>
+      </c>
+      <c r="R20" t="n">
+        <v>18</v>
+      </c>
+      <c r="S20" t="n">
+        <v>11</v>
+      </c>
+      <c r="T20" t="n">
+        <v>19</v>
+      </c>
+      <c r="U20" t="n">
+        <v>15</v>
+      </c>
+      <c r="V20" t="n">
+        <v>21</v>
+      </c>
+      <c r="W20" t="n">
+        <v>17</v>
+      </c>
+      <c r="X20" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>23:22:00</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>13:40:00</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>35:27</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>TAMIA DE LEON MIRANDA</t>
+        </is>
+      </c>
+      <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AU20" t="inlineStr">
+        <is>
+          <t>CARMEN HORTAL PALACIO</t>
+        </is>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="inlineStr"/>
+      <c r="AX20" t="inlineStr"/>
+      <c r="AY20" t="inlineStr"/>
+      <c r="AZ20" t="inlineStr"/>
+      <c r="BA20" t="inlineStr"/>
+      <c r="BB20" t="inlineStr">
+        <is>
+          <t>HADIYETOU BEWBE FKEINICH</t>
+        </is>
+      </c>
+      <c r="BC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD20" t="inlineStr"/>
+      <c r="BE20" t="inlineStr"/>
+      <c r="BF20" t="inlineStr"/>
+      <c r="BG20" t="inlineStr"/>
+      <c r="BH20" t="inlineStr"/>
+      <c r="BI20" t="inlineStr">
+        <is>
+          <t>PASTORA LAGO MARTINEZ</t>
+        </is>
+      </c>
+      <c r="BJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK20" t="inlineStr"/>
+      <c r="BL20" t="inlineStr"/>
+      <c r="BM20" t="inlineStr"/>
+      <c r="BN20" t="inlineStr"/>
+      <c r="BO20" t="inlineStr"/>
+      <c r="BP20" t="inlineStr">
+        <is>
+          <t>CARLOTA NODA SANCHEZ</t>
+        </is>
+      </c>
+      <c r="BQ20" t="n">
+        <v>8</v>
+      </c>
+      <c r="BR20" t="inlineStr"/>
+      <c r="BS20" t="inlineStr"/>
+      <c r="BT20" t="inlineStr"/>
+      <c r="BU20" t="inlineStr"/>
+      <c r="BV20" t="inlineStr"/>
+      <c r="BW20" t="inlineStr">
+        <is>
+          <t>TERESA ALVAREZ MARTINEZ</t>
+        </is>
+      </c>
+      <c r="BX20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY20" t="inlineStr"/>
+      <c r="BZ20" t="inlineStr"/>
+      <c r="CA20" t="inlineStr"/>
+      <c r="CB20" t="inlineStr"/>
+      <c r="CC20" t="inlineStr"/>
+      <c r="CD20" t="inlineStr">
+        <is>
+          <t>CINTIA RODRIGUEZ RIVERO</t>
+        </is>
+      </c>
+      <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="inlineStr"/>
+      <c r="CG20" t="inlineStr"/>
+      <c r="CH20" t="inlineStr"/>
+      <c r="CI20" t="inlineStr"/>
+      <c r="CJ20" t="inlineStr"/>
+      <c r="CK20" t="inlineStr">
+        <is>
+          <t>REYES FERNANDEZ ROCES</t>
+        </is>
+      </c>
+      <c r="CL20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM20" t="inlineStr"/>
+      <c r="CN20" t="inlineStr">
+        <is>
+          <t>20:02</t>
+        </is>
+      </c>
+      <c r="CO20" t="inlineStr"/>
+      <c r="CP20" t="inlineStr"/>
+      <c r="CQ20" t="inlineStr"/>
+      <c r="CR20" t="inlineStr">
+        <is>
+          <t>ISABELLA FERNANDEZ SANTAELLA</t>
+        </is>
+      </c>
+      <c r="CS20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT20" t="inlineStr"/>
+      <c r="CU20" t="inlineStr"/>
+      <c r="CV20" t="inlineStr"/>
+      <c r="CW20" t="inlineStr"/>
+      <c r="CX20" t="inlineStr"/>
+      <c r="CY20" t="inlineStr">
+        <is>
+          <t>DANIELA MARTINEZ GONZALEZ</t>
+        </is>
+      </c>
+      <c r="CZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA20" t="inlineStr"/>
+      <c r="DB20" t="inlineStr"/>
+      <c r="DC20" t="inlineStr"/>
+      <c r="DD20" t="inlineStr"/>
+      <c r="DE20" t="inlineStr"/>
+      <c r="DF20" t="inlineStr">
+        <is>
+          <t>AINARA MARTIN RAMOS</t>
+        </is>
+      </c>
+      <c r="DG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH20" t="inlineStr"/>
+      <c r="DI20" t="inlineStr"/>
+      <c r="DJ20" t="inlineStr"/>
+      <c r="DK20" t="inlineStr"/>
+      <c r="DL20" t="inlineStr"/>
+      <c r="DM20" t="inlineStr">
+        <is>
+          <t>NAIA CENTENO PEREZ</t>
+        </is>
+      </c>
+      <c r="DN20" t="n">
+        <v>2</v>
+      </c>
+      <c r="DO20" t="inlineStr"/>
+      <c r="DP20" t="inlineStr"/>
+      <c r="DQ20" t="inlineStr"/>
+      <c r="DR20" t="inlineStr"/>
+      <c r="DS20" t="inlineStr"/>
+      <c r="DT20" t="inlineStr">
+        <is>
+          <t>VALERIA HERNANDEZ ARENCIBIA</t>
+        </is>
+      </c>
+      <c r="DU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV20" t="inlineStr"/>
+      <c r="DW20" t="inlineStr">
+        <is>
+          <t>27:06</t>
+        </is>
+      </c>
+      <c r="DX20" t="inlineStr"/>
+      <c r="DY20" t="inlineStr"/>
+      <c r="DZ20" t="inlineStr"/>
+      <c r="EA20" t="inlineStr">
+        <is>
+          <t>TELVA FERNANDEZ FERNANDEZ</t>
+        </is>
+      </c>
+      <c r="EB20" t="n">
+        <v>6</v>
+      </c>
+      <c r="EC20" t="inlineStr">
+        <is>
+          <t>03:02</t>
+        </is>
+      </c>
+      <c r="ED20" t="inlineStr">
+        <is>
+          <t>34:27</t>
+        </is>
+      </c>
+      <c r="EE20" t="inlineStr"/>
+      <c r="EF20" t="inlineStr"/>
+      <c r="EG20" t="inlineStr"/>
+      <c r="EH20" t="inlineStr">
+        <is>
+          <t>NAGORE DEL CARMEN CABALLERO SOSA</t>
+        </is>
+      </c>
+      <c r="EI20" t="n">
+        <v>3</v>
+      </c>
+      <c r="EJ20" t="inlineStr"/>
+      <c r="EK20" t="inlineStr"/>
+      <c r="EL20" t="inlineStr"/>
+      <c r="EM20" t="inlineStr"/>
+      <c r="EN20" t="inlineStr"/>
+      <c r="EO20" t="inlineStr">
+        <is>
+          <t>SARA VALDES CADIERNO</t>
+        </is>
+      </c>
+      <c r="EP20" t="n">
+        <v>7</v>
+      </c>
+      <c r="EQ20" t="inlineStr"/>
+      <c r="ER20" t="inlineStr"/>
+      <c r="ES20" t="inlineStr"/>
+      <c r="ET20" t="inlineStr"/>
+      <c r="EU20" t="inlineStr"/>
+      <c r="EV20" t="inlineStr">
+        <is>
+          <t>IRIA CEDRES RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="EW20" t="n">
+        <v>8</v>
+      </c>
+      <c r="EX20" t="inlineStr"/>
+      <c r="EY20" t="inlineStr"/>
+      <c r="EZ20" t="inlineStr"/>
+      <c r="FA20" t="inlineStr"/>
+      <c r="FB20" t="inlineStr"/>
+      <c r="FC20" t="inlineStr">
+        <is>
+          <t>OLIVIA COSTA FERNANDEZ</t>
+        </is>
+      </c>
+      <c r="FD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE20" t="inlineStr"/>
+      <c r="FF20" t="inlineStr"/>
+      <c r="FG20" t="inlineStr"/>
+      <c r="FH20" t="inlineStr"/>
+      <c r="FI20" t="inlineStr"/>
+      <c r="FJ20" t="inlineStr">
+        <is>
+          <t>NIRA DUQUE ROBAYNA</t>
+        </is>
+      </c>
+      <c r="FK20" t="n">
+        <v>3</v>
+      </c>
+      <c r="FL20" t="inlineStr"/>
+      <c r="FM20" t="inlineStr"/>
+      <c r="FN20" t="inlineStr"/>
+      <c r="FO20" t="inlineStr"/>
+      <c r="FP20" t="inlineStr"/>
+      <c r="FQ20" t="inlineStr">
+        <is>
+          <t>LOLA PALACIO ALVAREZ</t>
+        </is>
+      </c>
+      <c r="FR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS20" t="inlineStr"/>
+      <c r="FT20" t="inlineStr"/>
+      <c r="FU20" t="inlineStr"/>
+      <c r="FV20" t="inlineStr"/>
+      <c r="FW20" t="inlineStr"/>
+      <c r="FX20" t="inlineStr">
+        <is>
+          <t>DANIELA LEMES MESEGUER</t>
+        </is>
+      </c>
+      <c r="FY20" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ20" t="inlineStr"/>
+      <c r="GA20" t="inlineStr"/>
+      <c r="GB20" t="inlineStr"/>
+      <c r="GC20" t="inlineStr"/>
+      <c r="GD20" t="inlineStr"/>
+      <c r="GE20" t="inlineStr">
+        <is>
+          <t>VERA ESTRADA ZAMARREÑO</t>
+        </is>
+      </c>
+      <c r="GF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG20" t="inlineStr"/>
+      <c r="GH20" t="inlineStr">
+        <is>
+          <t>11:11</t>
+        </is>
+      </c>
+      <c r="GI20" t="inlineStr">
+        <is>
+          <t>26:29</t>
+        </is>
+      </c>
+      <c r="GJ20" t="inlineStr"/>
+      <c r="GK20" t="inlineStr"/>
+      <c r="GL20" t="inlineStr">
+        <is>
+          <t>DANIELA RODRIGUEZ JIMENEZ</t>
+        </is>
+      </c>
+      <c r="GM20" t="n">
+        <v>2</v>
+      </c>
+      <c r="GN20" t="inlineStr"/>
+      <c r="GO20" t="inlineStr"/>
+      <c r="GP20" t="inlineStr"/>
+      <c r="GQ20" t="inlineStr"/>
+      <c r="GR20" t="inlineStr"/>
+      <c r="GS20" t="inlineStr">
+        <is>
+          <t>CARLA GONZALEZ AMADO</t>
+        </is>
+      </c>
+      <c r="GT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU20" t="inlineStr"/>
+      <c r="GV20" t="inlineStr"/>
+      <c r="GW20" t="inlineStr"/>
+      <c r="GX20" t="inlineStr"/>
+      <c r="GY20" t="inlineStr"/>
+      <c r="GZ20" t="inlineStr">
+        <is>
+          <t>ARIETTA MEDINA ORTEGA</t>
+        </is>
+      </c>
+      <c r="HA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB20" t="inlineStr"/>
+      <c r="HC20" t="inlineStr"/>
+      <c r="HD20" t="inlineStr"/>
+      <c r="HE20" t="inlineStr"/>
+      <c r="HF20" t="inlineStr"/>
+      <c r="HG20" t="inlineStr">
+        <is>
+          <t>ALEJANDRA MARTINEZ GONZALEZ</t>
+        </is>
+      </c>
+      <c r="HH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI20" t="inlineStr"/>
+      <c r="HJ20" t="inlineStr"/>
+      <c r="HK20" t="inlineStr"/>
+      <c r="HL20" t="inlineStr"/>
+      <c r="HM20" t="inlineStr"/>
+      <c r="HN20" t="inlineStr">
+        <is>
+          <t>VALENTINA MARIA HERNANDEZ PEREZ</t>
+        </is>
+      </c>
+      <c r="HO20" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP20" t="inlineStr"/>
+      <c r="HQ20" t="inlineStr"/>
+      <c r="HR20" t="inlineStr"/>
+      <c r="HS20" t="inlineStr"/>
+      <c r="HT20" t="inlineStr"/>
+      <c r="HU20" t="inlineStr">
+        <is>
+          <t>SOFIA GARCIA CALABOZO</t>
+        </is>
+      </c>
+      <c r="HV20" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW20" t="inlineStr"/>
+      <c r="HX20" t="inlineStr"/>
+      <c r="HY20" t="inlineStr"/>
+      <c r="HZ20" t="inlineStr"/>
+      <c r="IA20" t="inlineStr"/>
+      <c r="IB20" t="inlineStr"/>
+      <c r="IC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID20" t="inlineStr"/>
+      <c r="IE20" t="inlineStr"/>
+      <c r="IF20" t="inlineStr"/>
+      <c r="IG20" t="inlineStr"/>
+      <c r="IH20" t="inlineStr"/>
+      <c r="II20" t="inlineStr">
+        <is>
+          <t>AROA GONZALEZ FREIJEDO</t>
+        </is>
+      </c>
+      <c r="IJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK20" t="inlineStr"/>
+      <c r="IL20" t="inlineStr"/>
+      <c r="IM20" t="inlineStr"/>
+      <c r="IN20" t="inlineStr"/>
+      <c r="IO20" t="inlineStr"/>
+      <c r="IP20" t="inlineStr"/>
+      <c r="IQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR20" t="inlineStr"/>
+      <c r="IS20" t="inlineStr"/>
+      <c r="IT20" t="inlineStr"/>
+      <c r="IU20" t="inlineStr"/>
+      <c r="IV20" t="inlineStr"/>
+      <c r="IW20" t="inlineStr">
+        <is>
+          <t>MARIA GARCIA CALABOZO</t>
+        </is>
+      </c>
+      <c r="IX20" t="n">
+        <v>7</v>
+      </c>
+      <c r="IY20" t="inlineStr"/>
+      <c r="IZ20" t="inlineStr"/>
+      <c r="JA20" t="inlineStr"/>
+      <c r="JB20" t="inlineStr"/>
+      <c r="JC20" t="inlineStr"/>
+      <c r="JD20" t="inlineStr">
+        <is>
+          <t>ENTRENADOR</t>
+        </is>
+      </c>
+      <c r="JE20" t="inlineStr">
+        <is>
+          <t>MANUEL DEL CORAZON DE JESUS ALBA
+SANTANA</t>
+        </is>
+      </c>
+      <c r="JF20" t="inlineStr"/>
+      <c r="JG20" t="inlineStr"/>
+      <c r="JH20" t="inlineStr">
+        <is>
+          <t>OFICIAL</t>
+        </is>
+      </c>
+      <c r="JI20" t="inlineStr">
+        <is>
+          <t>GUILLERMO JOSE DIAZ REYES</t>
+        </is>
+      </c>
+      <c r="JJ20" t="inlineStr"/>
+      <c r="JK20" t="inlineStr"/>
+      <c r="JL20" t="inlineStr">
+        <is>
+          <t>OFICIAL</t>
+        </is>
+      </c>
+      <c r="JM20" t="inlineStr">
+        <is>
+          <t>SOLEDAD SANCHEZ MEDINA</t>
+        </is>
+      </c>
+      <c r="JN20" t="inlineStr"/>
+      <c r="JO20" t="inlineStr"/>
+      <c r="JP20" t="inlineStr"/>
+      <c r="JQ20" t="inlineStr"/>
+      <c r="JR20" t="inlineStr"/>
+      <c r="JS20" t="inlineStr"/>
+      <c r="JT20" t="inlineStr"/>
+      <c r="JU20" t="inlineStr"/>
+      <c r="JV20" t="inlineStr"/>
+      <c r="JW20" t="inlineStr"/>
+      <c r="JX20" t="n">
+        <v>54</v>
+      </c>
+      <c r="JY20" t="n">
+        <v>4</v>
+      </c>
+      <c r="JZ20" t="n">
+        <v>4</v>
+      </c>
+      <c r="KA20" t="n">
+        <v>1</v>
+      </c>
+      <c r="KB20" t="n">
+        <v>4</v>
+      </c>
+      <c r="KC20" t="n">
+        <v>3</v>
+      </c>
+      <c r="KD20" t="n">
+        <v>2</v>
+      </c>
+      <c r="KE20" t="n">
+        <v>3</v>
+      </c>
+      <c r="KF20" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG20" t="n">
+        <v>5</v>
+      </c>
+      <c r="KH20" t="n">
+        <v>1</v>
+      </c>
+      <c r="KI20" t="n">
+        <v>3</v>
+      </c>
+      <c r="KJ20" t="n">
+        <v>5</v>
+      </c>
+      <c r="KK20" t="n">
+        <v>4</v>
+      </c>
+      <c r="KL20" t="n">
+        <v>2</v>
+      </c>
+      <c r="KM20" t="n">
+        <v>1</v>
+      </c>
+      <c r="KN20" t="n">
+        <v>4</v>
+      </c>
+      <c r="KO20" t="n">
+        <v>2</v>
+      </c>
+      <c r="KP20" t="n">
+        <v>2</v>
+      </c>
+      <c r="KQ20" t="n">
+        <v>3</v>
+      </c>
+      <c r="KR20" t="n">
+        <v>2</v>
+      </c>
+      <c r="KS20" t="n">
+        <v>1</v>
+      </c>
+      <c r="KT20" t="n">
+        <v>2</v>
+      </c>
+      <c r="KU20" t="n">
+        <v>4</v>
+      </c>
+      <c r="KV20" t="n">
+        <v>4</v>
+      </c>
+      <c r="KW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA20" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LB20" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LC20" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LD20" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LE20" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LF20" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LG20" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LH20" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LI20" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LJ20" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LK20" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LL20" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LM20" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LN20" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LO20" t="n">
+        <v>1</v>
+      </c>
+      <c r="LP20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1455984</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>SELECCION CASTILLA LA MANCHA INFANTIL FEM.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>ARAG?N</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>20</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>7</v>
+      </c>
+      <c r="O21" t="n">
+        <v>5</v>
+      </c>
+      <c r="P21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>7</v>
+      </c>
+      <c r="R21" t="n">
+        <v>10</v>
+      </c>
+      <c r="S21" t="n">
+        <v>12</v>
+      </c>
+      <c r="T21" t="n">
+        <v>14</v>
+      </c>
+      <c r="U21" t="n">
+        <v>15</v>
+      </c>
+      <c r="V21" t="n">
+        <v>15</v>
+      </c>
+      <c r="W21" t="n">
+        <v>17</v>
+      </c>
+      <c r="X21" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>21:43:00</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>14:18:00</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>37:17</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>44:19</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>LEYRE HERNANDEZ BARBUDO</t>
+        </is>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AU21" t="inlineStr">
+        <is>
+          <t>CLAUDIA TEJERO CAMACHO</t>
+        </is>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="inlineStr"/>
+      <c r="AX21" t="inlineStr"/>
+      <c r="AY21" t="inlineStr"/>
+      <c r="AZ21" t="inlineStr"/>
+      <c r="BA21" t="inlineStr"/>
+      <c r="BB21" t="inlineStr">
+        <is>
+          <t>DANIELA ARIAS MORENO</t>
+        </is>
+      </c>
+      <c r="BC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD21" t="inlineStr"/>
+      <c r="BE21" t="inlineStr"/>
+      <c r="BF21" t="inlineStr"/>
+      <c r="BG21" t="inlineStr"/>
+      <c r="BH21" t="inlineStr"/>
+      <c r="BI21" t="inlineStr">
+        <is>
+          <t>SALMA IDRISSI OUALI</t>
+        </is>
+      </c>
+      <c r="BJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK21" t="inlineStr"/>
+      <c r="BL21" t="inlineStr"/>
+      <c r="BM21" t="inlineStr"/>
+      <c r="BN21" t="inlineStr"/>
+      <c r="BO21" t="inlineStr"/>
+      <c r="BP21" t="inlineStr">
+        <is>
+          <t>ABRIL RODRIGUEZ MARUGAN</t>
+        </is>
+      </c>
+      <c r="BQ21" t="n">
+        <v>7</v>
+      </c>
+      <c r="BR21" t="inlineStr"/>
+      <c r="BS21" t="inlineStr">
+        <is>
+          <t>31:23</t>
+        </is>
+      </c>
+      <c r="BT21" t="inlineStr"/>
+      <c r="BU21" t="inlineStr"/>
+      <c r="BV21" t="inlineStr"/>
+      <c r="BW21" t="inlineStr">
+        <is>
+          <t>ELENA MORENO SOPENA</t>
+        </is>
+      </c>
+      <c r="BX21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY21" t="inlineStr"/>
+      <c r="BZ21" t="inlineStr"/>
+      <c r="CA21" t="inlineStr"/>
+      <c r="CB21" t="inlineStr"/>
+      <c r="CC21" t="inlineStr"/>
+      <c r="CD21" t="inlineStr">
+        <is>
+          <t>CARLA GARCIA GONZALEZ</t>
+        </is>
+      </c>
+      <c r="CE21" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF21" t="inlineStr"/>
+      <c r="CG21" t="inlineStr"/>
+      <c r="CH21" t="inlineStr"/>
+      <c r="CI21" t="inlineStr"/>
+      <c r="CJ21" t="inlineStr"/>
+      <c r="CK21" t="inlineStr">
+        <is>
+          <t>KAIRA DJELLOUL GAÑARUL</t>
+        </is>
+      </c>
+      <c r="CL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM21" t="inlineStr"/>
+      <c r="CN21" t="inlineStr"/>
+      <c r="CO21" t="inlineStr"/>
+      <c r="CP21" t="inlineStr"/>
+      <c r="CQ21" t="inlineStr"/>
+      <c r="CR21" t="inlineStr">
+        <is>
+          <t>CRISTINA NAVARRO PEREZ</t>
+        </is>
+      </c>
+      <c r="CS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT21" t="inlineStr"/>
+      <c r="CU21" t="inlineStr"/>
+      <c r="CV21" t="inlineStr"/>
+      <c r="CW21" t="inlineStr"/>
+      <c r="CX21" t="inlineStr"/>
+      <c r="CY21" t="inlineStr">
+        <is>
+          <t>MARINA MAQUEDA FORNER</t>
+        </is>
+      </c>
+      <c r="CZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA21" t="inlineStr"/>
+      <c r="DB21" t="inlineStr"/>
+      <c r="DC21" t="inlineStr"/>
+      <c r="DD21" t="inlineStr"/>
+      <c r="DE21" t="inlineStr"/>
+      <c r="DF21" t="inlineStr">
+        <is>
+          <t>DANIELA ARRIAGA RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="DG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH21" t="inlineStr"/>
+      <c r="DI21" t="inlineStr"/>
+      <c r="DJ21" t="inlineStr"/>
+      <c r="DK21" t="inlineStr"/>
+      <c r="DL21" t="inlineStr"/>
+      <c r="DM21" t="inlineStr">
+        <is>
+          <t>GOYA JIMENEZ CINTORA</t>
+        </is>
+      </c>
+      <c r="DN21" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO21" t="inlineStr"/>
+      <c r="DP21" t="inlineStr"/>
+      <c r="DQ21" t="inlineStr"/>
+      <c r="DR21" t="inlineStr"/>
+      <c r="DS21" t="inlineStr"/>
+      <c r="DT21" t="inlineStr">
+        <is>
+          <t>NOA BARCENILLA FRIAS</t>
+        </is>
+      </c>
+      <c r="DU21" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV21" t="inlineStr"/>
+      <c r="DW21" t="inlineStr"/>
+      <c r="DX21" t="inlineStr"/>
+      <c r="DY21" t="inlineStr"/>
+      <c r="DZ21" t="inlineStr"/>
+      <c r="EA21" t="inlineStr">
+        <is>
+          <t>JIMENA COBOS SANCHEZ</t>
+        </is>
+      </c>
+      <c r="EB21" t="n">
+        <v>3</v>
+      </c>
+      <c r="EC21" t="inlineStr"/>
+      <c r="ED21" t="inlineStr">
+        <is>
+          <t>37:25</t>
+        </is>
+      </c>
+      <c r="EE21" t="inlineStr"/>
+      <c r="EF21" t="inlineStr"/>
+      <c r="EG21" t="inlineStr"/>
+      <c r="EH21" t="inlineStr">
+        <is>
+          <t>NAIA CASILLAS GARCIA</t>
+        </is>
+      </c>
+      <c r="EI21" t="n">
+        <v>2</v>
+      </c>
+      <c r="EJ21" t="inlineStr"/>
+      <c r="EK21" t="inlineStr"/>
+      <c r="EL21" t="inlineStr"/>
+      <c r="EM21" t="inlineStr"/>
+      <c r="EN21" t="inlineStr"/>
+      <c r="EO21" t="inlineStr">
+        <is>
+          <t>INES BELTRAN BETRAN</t>
+        </is>
+      </c>
+      <c r="EP21" t="n">
+        <v>3</v>
+      </c>
+      <c r="EQ21" t="inlineStr"/>
+      <c r="ER21" t="inlineStr">
+        <is>
+          <t>43:03</t>
+        </is>
+      </c>
+      <c r="ES21" t="inlineStr"/>
+      <c r="ET21" t="inlineStr"/>
+      <c r="EU21" t="inlineStr"/>
+      <c r="EV21" t="inlineStr">
+        <is>
+          <t>BLANCA MUÑIZ RIVAS</t>
+        </is>
+      </c>
+      <c r="EW21" t="n">
+        <v>2</v>
+      </c>
+      <c r="EX21" t="inlineStr"/>
+      <c r="EY21" t="inlineStr"/>
+      <c r="EZ21" t="inlineStr"/>
+      <c r="FA21" t="inlineStr"/>
+      <c r="FB21" t="inlineStr"/>
+      <c r="FC21" t="inlineStr">
+        <is>
+          <t>IXEYA SOS RUBIO</t>
+        </is>
+      </c>
+      <c r="FD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE21" t="inlineStr"/>
+      <c r="FF21" t="inlineStr"/>
+      <c r="FG21" t="inlineStr"/>
+      <c r="FH21" t="inlineStr"/>
+      <c r="FI21" t="inlineStr"/>
+      <c r="FJ21" t="inlineStr">
+        <is>
+          <t>LUCIA GUTIERREZ DIEZ</t>
+        </is>
+      </c>
+      <c r="FK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL21" t="inlineStr"/>
+      <c r="FM21" t="inlineStr"/>
+      <c r="FN21" t="inlineStr"/>
+      <c r="FO21" t="inlineStr"/>
+      <c r="FP21" t="inlineStr"/>
+      <c r="FQ21" t="inlineStr">
+        <is>
+          <t>LETICIA GIL GRACIA</t>
+        </is>
+      </c>
+      <c r="FR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS21" t="inlineStr"/>
+      <c r="FT21" t="inlineStr"/>
+      <c r="FU21" t="inlineStr"/>
+      <c r="FV21" t="inlineStr"/>
+      <c r="FW21" t="inlineStr"/>
+      <c r="FX21" t="inlineStr">
+        <is>
+          <t>LUCIA PERROTE ALVAREZ</t>
+        </is>
+      </c>
+      <c r="FY21" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ21" t="inlineStr"/>
+      <c r="GA21" t="inlineStr"/>
+      <c r="GB21" t="inlineStr"/>
+      <c r="GC21" t="inlineStr"/>
+      <c r="GD21" t="inlineStr"/>
+      <c r="GE21" t="inlineStr">
+        <is>
+          <t>VIOLETA SERRANO GRACIA</t>
+        </is>
+      </c>
+      <c r="GF21" t="n">
+        <v>11</v>
+      </c>
+      <c r="GG21" t="inlineStr"/>
+      <c r="GH21" t="inlineStr"/>
+      <c r="GI21" t="inlineStr"/>
+      <c r="GJ21" t="inlineStr"/>
+      <c r="GK21" t="inlineStr"/>
+      <c r="GL21" t="inlineStr">
+        <is>
+          <t>AINARA ROBLES REY</t>
+        </is>
+      </c>
+      <c r="GM21" t="n">
+        <v>3</v>
+      </c>
+      <c r="GN21" t="inlineStr"/>
+      <c r="GO21" t="inlineStr"/>
+      <c r="GP21" t="inlineStr"/>
+      <c r="GQ21" t="inlineStr"/>
+      <c r="GR21" t="inlineStr"/>
+      <c r="GS21" t="inlineStr">
+        <is>
+          <t>ANNALEAK AKUAH MANU AGU</t>
+        </is>
+      </c>
+      <c r="GT21" t="n">
+        <v>2</v>
+      </c>
+      <c r="GU21" t="inlineStr"/>
+      <c r="GV21" t="inlineStr"/>
+      <c r="GW21" t="inlineStr"/>
+      <c r="GX21" t="inlineStr"/>
+      <c r="GY21" t="inlineStr"/>
+      <c r="GZ21" t="inlineStr">
+        <is>
+          <t>SARA MARCOS MARTINEZ</t>
+        </is>
+      </c>
+      <c r="HA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB21" t="inlineStr"/>
+      <c r="HC21" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="HD21" t="inlineStr">
+        <is>
+          <t>46:00</t>
+        </is>
+      </c>
+      <c r="HE21" t="inlineStr"/>
+      <c r="HF21" t="inlineStr"/>
+      <c r="HG21" t="inlineStr">
+        <is>
+          <t>CANDELA SANCHEZ AGUADO</t>
+        </is>
+      </c>
+      <c r="HH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI21" t="inlineStr"/>
+      <c r="HJ21" t="inlineStr"/>
+      <c r="HK21" t="inlineStr"/>
+      <c r="HL21" t="inlineStr"/>
+      <c r="HM21" t="inlineStr"/>
+      <c r="HN21" t="inlineStr">
+        <is>
+          <t>ELENA LEAL GANGOSO</t>
+        </is>
+      </c>
+      <c r="HO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP21" t="inlineStr"/>
+      <c r="HQ21" t="inlineStr"/>
+      <c r="HR21" t="inlineStr"/>
+      <c r="HS21" t="inlineStr"/>
+      <c r="HT21" t="inlineStr"/>
+      <c r="HU21" t="inlineStr">
+        <is>
+          <t>PAULA FARLETE CUESTA</t>
+        </is>
+      </c>
+      <c r="HV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW21" t="inlineStr"/>
+      <c r="HX21" t="inlineStr"/>
+      <c r="HY21" t="inlineStr"/>
+      <c r="HZ21" t="inlineStr"/>
+      <c r="IA21" t="inlineStr"/>
+      <c r="IB21" t="inlineStr">
+        <is>
+          <t>INES GARCIA SANCHEZ</t>
+        </is>
+      </c>
+      <c r="IC21" t="n">
+        <v>3</v>
+      </c>
+      <c r="ID21" t="inlineStr"/>
+      <c r="IE21" t="inlineStr"/>
+      <c r="IF21" t="inlineStr"/>
+      <c r="IG21" t="inlineStr"/>
+      <c r="IH21" t="inlineStr"/>
+      <c r="II21" t="inlineStr">
+        <is>
+          <t>MARTA SANCHO GARCIA-LISBONA</t>
+        </is>
+      </c>
+      <c r="IJ21" t="n">
+        <v>4</v>
+      </c>
+      <c r="IK21" t="inlineStr"/>
+      <c r="IL21" t="inlineStr">
+        <is>
+          <t>45:36</t>
+        </is>
+      </c>
+      <c r="IM21" t="inlineStr"/>
+      <c r="IN21" t="inlineStr"/>
+      <c r="IO21" t="inlineStr"/>
+      <c r="IP21" t="inlineStr">
+        <is>
+          <t>VIOLETA SALMERON GIL</t>
+        </is>
+      </c>
+      <c r="IQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR21" t="inlineStr"/>
+      <c r="IS21" t="inlineStr"/>
+      <c r="IT21" t="inlineStr"/>
+      <c r="IU21" t="inlineStr"/>
+      <c r="IV21" t="inlineStr"/>
+      <c r="IW21" t="inlineStr">
+        <is>
+          <t>GALA DOMINGUEZ CRESPO</t>
+        </is>
+      </c>
+      <c r="IX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY21" t="inlineStr"/>
+      <c r="IZ21" t="inlineStr"/>
+      <c r="JA21" t="inlineStr"/>
+      <c r="JB21" t="inlineStr"/>
+      <c r="JC21" t="inlineStr"/>
+      <c r="JD21" t="inlineStr">
+        <is>
+          <t>ENTRENADOR</t>
+        </is>
+      </c>
+      <c r="JE21" t="inlineStr">
+        <is>
+          <t>ROBERTO GARCIA BARTOLOME</t>
+        </is>
+      </c>
+      <c r="JF21" t="inlineStr"/>
+      <c r="JG21" t="inlineStr"/>
+      <c r="JH21" t="inlineStr">
+        <is>
+          <t>AYTE ENTRENADOR</t>
+        </is>
+      </c>
+      <c r="JI21" t="inlineStr">
+        <is>
+          <t>DANIEL MANRIQUE RUIZ</t>
+        </is>
+      </c>
+      <c r="JJ21" t="inlineStr"/>
+      <c r="JK21" t="inlineStr"/>
+      <c r="JL21" t="inlineStr">
+        <is>
+          <t>OFICIAL</t>
+        </is>
+      </c>
+      <c r="JM21" t="inlineStr">
+        <is>
+          <t>MARINA YUAN VEGA COVARRUBIAS</t>
+        </is>
+      </c>
+      <c r="JN21" t="inlineStr"/>
+      <c r="JO21" t="inlineStr"/>
+      <c r="JP21" t="inlineStr">
+        <is>
+          <t>OFICIAL</t>
+        </is>
+      </c>
+      <c r="JQ21" t="inlineStr">
+        <is>
+          <t>LUIS POLO FERRERO</t>
+        </is>
+      </c>
+      <c r="JR21" t="inlineStr"/>
+      <c r="JS21" t="inlineStr"/>
+      <c r="JT21" t="inlineStr"/>
+      <c r="JU21" t="inlineStr"/>
+      <c r="JV21" t="inlineStr"/>
+      <c r="JW21" t="inlineStr"/>
+      <c r="JX21" t="n">
+        <v>45</v>
+      </c>
+      <c r="JY21" t="n">
+        <v>-5</v>
+      </c>
+      <c r="JZ21" t="n">
+        <v>5</v>
+      </c>
+      <c r="KA21" t="n">
+        <v>3</v>
+      </c>
+      <c r="KB21" t="n">
+        <v>3</v>
+      </c>
+      <c r="KC21" t="n">
+        <v>2</v>
+      </c>
+      <c r="KD21" t="n">
+        <v>2</v>
+      </c>
+      <c r="KE21" t="n">
+        <v>2</v>
+      </c>
+      <c r="KF21" t="n">
+        <v>3</v>
+      </c>
+      <c r="KG21" t="n">
+        <v>3</v>
+      </c>
+      <c r="KH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI21" t="n">
+        <v>3</v>
+      </c>
+      <c r="KJ21" t="n">
+        <v>2</v>
+      </c>
+      <c r="KK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL21" t="n">
+        <v>5</v>
+      </c>
+      <c r="KM21" t="n">
+        <v>4</v>
+      </c>
+      <c r="KN21" t="n">
+        <v>3</v>
+      </c>
+      <c r="KO21" t="n">
+        <v>1</v>
+      </c>
+      <c r="KP21" t="n">
+        <v>2</v>
+      </c>
+      <c r="KQ21" t="n">
+        <v>1</v>
+      </c>
+      <c r="KR21" t="n">
+        <v>1</v>
+      </c>
+      <c r="KS21" t="n">
+        <v>3</v>
+      </c>
+      <c r="KT21" t="n">
+        <v>5</v>
+      </c>
+      <c r="KU21" t="n">
+        <v>1</v>
+      </c>
+      <c r="KV21" t="n">
+        <v>2</v>
+      </c>
+      <c r="KW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA21" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LB21" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LC21" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LD21" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LE21" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LF21" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LG21" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LH21" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LI21" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LJ21" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LK21" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LL21" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LM21" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LN21" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LO21" t="n">
+        <v>3</v>
+      </c>
+      <c r="LP21" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
